--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F0CA22-CF4C-468D-8718-AE85B20A45BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781BF34-0D61-4502-BCD4-8120EB5504CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC03111B-B430-405B-A990-53518AD17E52}"/>
+    <workbookView xWindow="4860" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{BC03111B-B430-405B-A990-53518AD17E52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +601,7 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I5" si="1">G4*E4</f>
+        <f t="shared" ref="I4" si="1">G4*E4</f>
         <v>46.153846153846153</v>
       </c>
       <c r="J4">

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781BF34-0D61-4502-BCD4-8120EB5504CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{BC03111B-B430-405B-A990-53518AD17E52}"/>
+    <workbookView xWindow="0" yWindow="1650" windowWidth="3825" windowHeight="5505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>orientation</t>
   </si>
@@ -90,12 +84,21 @@
   </si>
   <si>
     <t>samsung-galaxy-note-10</t>
+  </si>
+  <si>
+    <t>iPhone SE (2th gen)</t>
+  </si>
+  <si>
+    <t>iPhone 14 Pro Max</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro Max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,18 +460,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0D2B31-2963-456B-A4CB-7EC110927CDE}">
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +594,7 @@
         <v>3120</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E8" si="0">C4/D4</f>
+        <f t="shared" ref="E4:E18" si="0">C4/D4</f>
         <v>0.46153846153846156</v>
       </c>
       <c r="G4">
@@ -605,7 +608,7 @@
         <v>46.153846153846153</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J7" si="2">H4*E4</f>
+        <f t="shared" ref="J4:J16" si="2">H4*E4</f>
         <v>46.153846153846153</v>
       </c>
     </row>
@@ -665,7 +668,7 @@
         <v>100</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I7" si="3">G6*E6</f>
+        <f t="shared" ref="I6:I16" si="3">G6*E6</f>
         <v>46.208530805687204</v>
       </c>
       <c r="J6">
@@ -722,6 +725,14 @@
         <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -736,6 +747,18 @@
       <c r="D9">
         <v>3840</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -750,6 +773,18 @@
       <c r="D10">
         <v>3088</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.46632124352331605</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -764,6 +799,18 @@
       <c r="D11">
         <v>1440</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.1444444444444444</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -779,6 +826,18 @@
       <c r="D12">
         <v>7680</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -793,6 +852,18 @@
       <c r="D13">
         <v>4320</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -807,6 +878,18 @@
       <c r="D14">
         <v>1440</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -820,6 +903,86 @@
       </c>
       <c r="D15">
         <v>5120</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.28125</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>750</v>
+      </c>
+      <c r="D16">
+        <v>1334</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.56221889055472263</v>
+      </c>
+      <c r="G16">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>13.493253373313344</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>13.493253373313344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1294</v>
+      </c>
+      <c r="D17">
+        <v>2802</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.46181299072091364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1242</v>
+      </c>
+      <c r="D18">
+        <v>2688</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.46205357142857145</v>
       </c>
     </row>
   </sheetData>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9DBC9E-3D15-4589-9EFB-E48A0ABC2C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1650" windowWidth="3825" windowHeight="5505"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>orientation</t>
   </si>
@@ -93,12 +100,36 @@
   </si>
   <si>
     <t>iPhone 11 Pro Max</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Ultra</t>
+  </si>
+  <si>
+    <t>samsung galaxy a23</t>
+  </si>
+  <si>
+    <t>Samsung 4K Monitor</t>
+  </si>
+  <si>
+    <t>Google Nest Hub Max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,17 +491,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -989,4 +1020,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE48C58-5CF7-4439-B111-45D37F26CC75}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>3088</v>
+      </c>
+      <c r="C2">
+        <v>1440</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>0.46632124352331605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <f>C3/B3</f>
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <f>100/1000</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>2408</v>
+      </c>
+      <c r="C4">
+        <v>1080</v>
+      </c>
+      <c r="D4">
+        <f>C4/B4</f>
+        <v>0.44850498338870431</v>
+      </c>
+      <c r="H4">
+        <f>1440/1000</f>
+        <v>1.44</v>
+      </c>
+      <c r="I4">
+        <f>100*H4</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>2160</v>
+      </c>
+      <c r="C5">
+        <v>3840</v>
+      </c>
+      <c r="D5">
+        <f>C5/B5</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="H5">
+        <f>1000/1440</f>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="I5">
+        <f>100*H5</f>
+        <v>69.444444444444443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+      <c r="C6">
+        <v>1280</v>
+      </c>
+      <c r="D6">
+        <f>C6/B6</f>
+        <v>1.6</v>
+      </c>
+      <c r="H6">
+        <f>1440/3840</f>
+        <v>0.375</v>
+      </c>
+      <c r="I6">
+        <f>100*H6</f>
+        <v>37.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9DBC9E-3D15-4589-9EFB-E48A0ABC2C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A6C547-4633-4E6F-8D9F-2E0BF9F116A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>orientation</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>Google Nest Hub Max</t>
+  </si>
+  <si>
+    <t>Min-Height-Width</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>item-percent</t>
+  </si>
+  <si>
+    <t>UserScale</t>
+  </si>
+  <si>
+    <t>item-size</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>iphone 14 pro max</t>
   </si>
 </sst>
 </file>
@@ -1024,15 +1045,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE48C58-5CF7-4439-B111-45D37F26CC75}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1045,8 +1066,23 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1060,8 +1096,30 @@
         <f>C2/B2</f>
         <v>0.46632124352331605</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>MIN(B2, C2)</f>
+        <v>1440</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <f>D2*F2</f>
+        <v>46.632124352331608</v>
+      </c>
+      <c r="H2">
+        <f>(E2*0.1) / 100</f>
+        <v>1.44</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>F2*H2*I2</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2000</v>
       </c>
@@ -1072,12 +1130,30 @@
         <f>C3/B3</f>
         <v>0.5</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="0">MIN(B3, C3)</f>
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="1">D3*F3</f>
+        <v>50</v>
+      </c>
       <c r="H3">
-        <f>100/1000</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H3:H8" si="2">(E3*0.1) / 100</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="3">F3*H3*I3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1091,16 +1167,30 @@
         <f>C4/B4</f>
         <v>0.44850498338870431</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>44.85049833887043</v>
+      </c>
       <c r="H4">
-        <f>1440/1000</f>
-        <v>1.44</v>
+        <f t="shared" si="2"/>
+        <v>1.08</v>
       </c>
       <c r="I4">
-        <f>100*H4</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1114,16 +1204,30 @@
         <f>C5/B5</f>
         <v>1.7777777777777777</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2160</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>177.77777777777777</v>
+      </c>
       <c r="H5">
-        <f>1000/1440</f>
-        <v>0.69444444444444442</v>
+        <f t="shared" si="2"/>
+        <v>2.16</v>
       </c>
       <c r="I5">
-        <f>100*H5</f>
-        <v>69.444444444444443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1137,13 +1241,101 @@
         <f>C6/B6</f>
         <v>1.6</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <f>D6*F6</f>
+        <v>160</v>
+      </c>
       <c r="H6">
-        <f>1440/3840</f>
-        <v>0.375</v>
+        <f t="shared" si="2"/>
+        <v>0.8</v>
       </c>
       <c r="I6">
-        <f>100*H6</f>
-        <v>37.5</v>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <f>C7/B7</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <f>D7*F7</f>
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>2796</v>
+      </c>
+      <c r="C8">
+        <v>1290</v>
+      </c>
+      <c r="D8">
+        <f>C8/B8</f>
+        <v>0.46137339055793991</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1290</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <f>D8*F8</f>
+        <v>46.137339055793994</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1.29</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A6C547-4633-4E6F-8D9F-2E0BF9F116A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ACDD4C-3D6E-4BC7-A9F8-1019530DE06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>orientation</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>iphone 14 pro max</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Scale-Width</t>
+  </si>
+  <si>
+    <t>ScaleHeight</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Generic Tall and Narrow</t>
+  </si>
+  <si>
+    <t>Generic Wide and Low Height</t>
   </si>
 </sst>
 </file>
@@ -1045,15 +1063,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE48C58-5CF7-4439-B111-45D37F26CC75}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J9"/>
+      <selection sqref="A1:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1081,8 +1099,17 @@
       <c r="J1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1118,8 +1145,22 @@
         <f>F2*H2*I2</f>
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0.1</v>
+      </c>
+      <c r="L2">
+        <f>C2*K2</f>
+        <v>144</v>
+      </c>
+      <c r="M2">
+        <f>B2*K2</f>
+        <v>308.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
       <c r="B3">
         <v>2000</v>
       </c>
@@ -1131,7 +1172,7 @@
         <v>0.5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="0">MIN(B3, C3)</f>
+        <f t="shared" ref="E3:E10" si="0">MIN(B3, C3)</f>
         <v>1000</v>
       </c>
       <c r="F3">
@@ -1142,18 +1183,29 @@
         <v>50</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H8" si="2">(E3*0.1) / 100</f>
+        <f t="shared" ref="H3:H10" si="2">(E3*0.1) / 100</f>
         <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J8" si="3">F3*H3*I3</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J3:J10" si="3">F3*H3*I3</f>
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L10" si="4">C3*K3</f>
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M10" si="5">B3*K3</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1189,8 +1241,19 @@
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0.1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>240.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1226,8 +1289,19 @@
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>384</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1263,8 +1337,19 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0.1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1300,8 +1385,19 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>0.1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1336,6 +1432,113 @@
       <c r="J8">
         <f t="shared" si="3"/>
         <v>129</v>
+      </c>
+      <c r="K8">
+        <v>0.1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>279.60000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>3088</v>
+      </c>
+      <c r="C9">
+        <v>700</v>
+      </c>
+      <c r="D9">
+        <f>C9/B9</f>
+        <v>0.2266839378238342</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <f>D9*F9</f>
+        <v>22.668393782383419</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <v>0.1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>308.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>700</v>
+      </c>
+      <c r="C10">
+        <v>3088</v>
+      </c>
+      <c r="D10">
+        <f>C10/B10</f>
+        <v>4.411428571428571</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <f>D10*F10</f>
+        <v>441.14285714285711</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="K10">
+        <v>0.1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>308.8</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ACDD4C-3D6E-4BC7-A9F8-1019530DE06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="12600" windowHeight="12810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -168,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,14 +524,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1062,14 +1056,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE48C58-5CF7-4439-B111-45D37F26CC75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M10"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1120,7 +1129,7 @@
         <v>1440</v>
       </c>
       <c r="D2">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D10" si="0">C2/B2</f>
         <v>0.46632124352331605</v>
       </c>
       <c r="E2">
@@ -1168,40 +1177,40 @@
         <v>1000</v>
       </c>
       <c r="D3">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">MIN(B3, C3)</f>
+        <f t="shared" ref="E3:E10" si="1">MIN(B3, C3)</f>
         <v>1000</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="1">D3*F3</f>
+        <f t="shared" ref="G3:G5" si="2">D3*F3</f>
         <v>50</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H10" si="2">(E3*0.1) / 100</f>
+        <f t="shared" ref="H3:H10" si="3">(E3*0.1) / 100</f>
         <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J10" si="3">F3*H3*I3</f>
+        <f t="shared" ref="J3:J10" si="4">F3*H3*I3</f>
         <v>100</v>
       </c>
       <c r="K3">
         <v>0.1</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L10" si="4">C3*K3</f>
+        <f t="shared" ref="L3:L10" si="5">C3*K3</f>
         <v>100</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M10" si="5">B3*K3</f>
+        <f t="shared" ref="M3:M10" si="6">B3*K3</f>
         <v>200</v>
       </c>
     </row>
@@ -1216,40 +1225,40 @@
         <v>1080</v>
       </c>
       <c r="D4">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.44850498338870431</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1080</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.85049833887043</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.08</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="K4">
         <v>0.1</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="M4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>240.8</v>
       </c>
     </row>
@@ -1264,40 +1273,40 @@
         <v>3840</v>
       </c>
       <c r="D5">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2160</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>177.77777777777777</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.16</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>216</v>
       </c>
       <c r="K5">
         <v>0.1</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>216</v>
       </c>
     </row>
@@ -1312,11 +1321,11 @@
         <v>1280</v>
       </c>
       <c r="D6">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="F6">
@@ -1327,25 +1336,25 @@
         <v>160</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="K6">
         <v>0.1</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
@@ -1360,11 +1369,11 @@
         <v>1000</v>
       </c>
       <c r="D7">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F7">
@@ -1375,25 +1384,25 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="K7">
         <v>0.1</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="M7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -1408,11 +1417,11 @@
         <v>1290</v>
       </c>
       <c r="D8">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.46137339055793991</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1290</v>
       </c>
       <c r="F8">
@@ -1423,25 +1432,25 @@
         <v>46.137339055793994</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.29</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="K8">
         <v>0.1</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>279.60000000000002</v>
       </c>
     </row>
@@ -1456,11 +1465,11 @@
         <v>700</v>
       </c>
       <c r="D9">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>0.2266839378238342</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="F9">
@@ -1471,25 +1480,25 @@
         <v>22.668393782383419</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="K9">
         <v>0.1</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>308.8</v>
       </c>
     </row>
@@ -1504,11 +1513,11 @@
         <v>3088</v>
       </c>
       <c r="D10">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>4.411428571428571</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="F10">
@@ -1519,26 +1528,26 @@
         <v>441.14285714285711</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="K10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
-        <v>308.8</v>
+        <f>C10*K10</f>
+        <v>617.6</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F80B730-C0CD-4C8E-8DA1-69DA3ED7588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="12600" windowHeight="12810" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Chars" sheetId="2" r:id="rId2"/>
+    <sheet name="aa" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="217">
   <si>
     <t>orientation</t>
   </si>
@@ -157,12 +164,537 @@
   </si>
   <si>
     <t>Generic Wide and Low Height</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>Ниво</t>
+  </si>
+  <si>
+    <t>Croatian</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>Razina</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>Niveau</t>
+  </si>
+  <si>
+    <t>Filipino</t>
+  </si>
+  <si>
+    <t>tl</t>
+  </si>
+  <si>
+    <t>Antas</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Eben</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Tingkat</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>수준</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>Рівень</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>Nivå</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>స్థాయి</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>úroveň</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Tahap</t>
+  </si>
+  <si>
+    <t>Catalan</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>Nivell</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>مستوى</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>Taso</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Livello</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>Επίπεδο</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>ലെവൽ</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>Poziom</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>Līmenis</t>
+  </si>
+  <si>
+    <t>Slovenian</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>Уровень</t>
+  </si>
+  <si>
+    <t>Tajik</t>
+  </si>
+  <si>
+    <t>tg</t>
+  </si>
+  <si>
+    <t>Сатҳи</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>ระดับ</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>سطح</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>bn</t>
+  </si>
+  <si>
+    <t>স্তর</t>
+  </si>
+  <si>
+    <t>Chinese Simplified</t>
+  </si>
+  <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>Estonian</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>Tase</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>レベル</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>iw</t>
+  </si>
+  <si>
+    <t>רָמָה</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>पातळी</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>Nível</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>Lygis</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>நிலை</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Serbian</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>Mức độ</t>
+  </si>
+  <si>
+    <t>Amharic</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>ደረጃ</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>Seviye</t>
+  </si>
+  <si>
+    <t>Corsican</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>Livellu</t>
+  </si>
+  <si>
+    <t>Basque</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>Maila</t>
+  </si>
+  <si>
+    <t>Cebuano</t>
+  </si>
+  <si>
+    <t>ceb</t>
+  </si>
+  <si>
+    <t>Ang-ang</t>
+  </si>
+  <si>
+    <t>Georgian</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>დონე</t>
+  </si>
+  <si>
+    <t>Hmong</t>
+  </si>
+  <si>
+    <t>hmn</t>
+  </si>
+  <si>
+    <t>Qib</t>
+  </si>
+  <si>
+    <t>Hausa</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>Mataki</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>kn</t>
+  </si>
+  <si>
+    <t>ಮಟ್ಟ</t>
+  </si>
+  <si>
+    <t>Igbo</t>
+  </si>
+  <si>
+    <t>ig</t>
+  </si>
+  <si>
+    <t>Ọkwa</t>
+  </si>
+  <si>
+    <t>Kurdish</t>
+  </si>
+  <si>
+    <t>ku</t>
+  </si>
+  <si>
+    <t>Deşt</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>Malagasy</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>ambaratonga</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>mn</t>
+  </si>
+  <si>
+    <t>Түвшин</t>
+  </si>
+  <si>
+    <t>Sindhi</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Pashto</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>کچه</t>
+  </si>
+  <si>
+    <t>Scots Gaelic</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>Ìre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,14 +1056,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1056,11 +1588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1738,7 @@
         <v>0.1</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L10" si="5">C3*K3</f>
+        <f t="shared" ref="L3:L9" si="5">C3*K3</f>
         <v>100</v>
       </c>
       <c r="M3">
@@ -1548,6 +2080,925 @@
       <c r="M10">
         <f t="shared" si="6"/>
         <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EED236-633D-44AC-BD6D-C115C2978E60}">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <f>LEN(C2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D60" si="0">LEN(C3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F80B730-C0CD-4C8E-8DA1-69DA3ED7588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29016" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Chars" sheetId="2" r:id="rId2"/>
     <sheet name="aa" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="219">
   <si>
     <t>orientation</t>
   </si>
@@ -148,9 +142,6 @@
     <t>iphone 14 pro max</t>
   </si>
   <si>
-    <t>Scale</t>
-  </si>
-  <si>
     <t>Scale-Width</t>
   </si>
   <si>
@@ -689,12 +680,21 @@
   </si>
   <si>
     <t>Ìre</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>UI-Scale</t>
+  </si>
+  <si>
+    <t>Item-Scale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1056,31 +1056,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1588,31 +1588,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1631,26 +1632,32 @@
       <c r="F1" t="s">
         <v>30</v>
       </c>
+      <c r="G1" t="s">
+        <v>216</v>
+      </c>
       <c r="H1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1676,31 +1683,34 @@
         <v>46.632124352331608</v>
       </c>
       <c r="H2">
-        <f>(E2*0.1) / 100</f>
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <f>(E2*H2) / 100</f>
         <v>1.44</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <f>F2*H2*I2</f>
+      <c r="K2">
+        <f>F2*I2*J2</f>
         <v>144</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.1</v>
       </c>
-      <c r="L2">
-        <f>C2*K2</f>
+      <c r="M2">
+        <f>C2*L2</f>
         <v>144</v>
       </c>
-      <c r="M2">
-        <f>B2*K2</f>
+      <c r="N2">
+        <f>B2*L2</f>
         <v>308.8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -1724,29 +1734,32 @@
         <v>50</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H10" si="3">(E3*0.1) / 100</f>
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="3">(E3*H3) / 100</f>
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J10" si="4">F3*H3*I3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="4">F3*I3*J3</f>
         <v>100</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.1</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L9" si="5">C3*K3</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="5">C3*L3</f>
         <v>100</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M10" si="6">B3*K3</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N12" si="6">B3*L3</f>
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1772,29 +1785,32 @@
         <v>44.85049833887043</v>
       </c>
       <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="3"/>
         <v>1.08</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f t="shared" si="6"/>
         <v>240.8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1820,29 +1836,32 @@
         <v>177.77777777777777</v>
       </c>
       <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="3"/>
         <v>2.16</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="4"/>
         <v>216</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.1</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="5"/>
         <v>384</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1868,29 +1887,32 @@
         <v>160</v>
       </c>
       <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.1</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1916,29 +1938,32 @@
         <v>100</v>
       </c>
       <c r="H7">
+        <v>0.1</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.1</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1964,31 +1989,34 @@
         <v>46.137339055793994</v>
       </c>
       <c r="H8">
+        <v>0.1</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="3"/>
         <v>1.29</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="4"/>
         <v>129</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="6"/>
         <v>279.60000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>3088</v>
@@ -2012,31 +2040,34 @@
         <v>22.668393782383419</v>
       </c>
       <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.1</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="6"/>
         <v>308.8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>700</v>
@@ -2060,31 +2091,85 @@
         <v>441.14285714285711</v>
       </c>
       <c r="H10">
+        <v>0.1</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="K10">
-        <v>0.2</v>
-      </c>
       <c r="L10">
-        <f>C10*K10</f>
-        <v>617.6</v>
+        <v>0.1</v>
       </c>
       <c r="M10">
+        <f>C10*L10</f>
+        <v>308.8</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I31" t="s">
-        <v>42</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>700</v>
+      </c>
+      <c r="C11">
+        <v>3088</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="7">C11/B11</f>
+        <v>4.411428571428571</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11" si="8">MIN(B11, C11)</f>
+        <v>700</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <f>D11*F11</f>
+        <v>105.8742857142857</v>
+      </c>
+      <c r="H11">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>69.888000000000005</v>
+      </c>
+      <c r="L11">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <f>C11*L11</f>
+        <v>308.8</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2093,908 +2178,908 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EED236-633D-44AC-BD6D-C115C2978E60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
       </c>
       <c r="D2">
         <f>LEN(C2)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D60" si="0">LEN(C3)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="D4">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5">
+      <c r="D33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" t="s">
         <v>128</v>
       </c>
-      <c r="C29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29">
+      <c r="D58">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>163</v>
-      </c>
-      <c r="B42" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B44" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" t="s">
-        <v>179</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" t="s">
-        <v>181</v>
-      </c>
-      <c r="C48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" t="s">
-        <v>184</v>
-      </c>
-      <c r="C49" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" t="s">
-        <v>188</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>189</v>
-      </c>
-      <c r="B51" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>192</v>
-      </c>
-      <c r="B52" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" t="s">
-        <v>194</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" t="s">
-        <v>197</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>198</v>
-      </c>
-      <c r="B54" t="s">
-        <v>199</v>
-      </c>
-      <c r="C54" t="s">
-        <v>200</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" t="s">
-        <v>205</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>206</v>
-      </c>
-      <c r="B57" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>209</v>
-      </c>
-      <c r="B58" t="s">
-        <v>210</v>
-      </c>
-      <c r="C58" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" t="s">
-        <v>212</v>
-      </c>
-      <c r="C59" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>213</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>214</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>215</v>
-      </c>
-      <c r="C60" t="s">
-        <v>216</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29016" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12876" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,9 +157,6 @@
     <t>Generic Wide and Low Height</t>
   </si>
   <si>
-    <t>Char</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -689,6 +686,9 @@
   </si>
   <si>
     <t>Item-Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,10 +1633,10 @@
         <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I1" t="s">
         <v>31</v>
@@ -1648,7 +1648,7 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M1" t="s">
         <v>36</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="31" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J31" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2189,27 +2189,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
       </c>
       <c r="D2">
         <f>LEN(C2)</f>
@@ -2218,13 +2218,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D60" si="0">LEN(C3)</f>
@@ -2233,13 +2233,13 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -2248,13 +2248,13 @@
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -2263,13 +2263,13 @@
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -2278,13 +2278,13 @@
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -2293,13 +2293,13 @@
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -2308,13 +2308,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -2323,13 +2323,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -2338,13 +2338,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -2383,13 +2383,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
         <v>81</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>82</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -2398,13 +2398,13 @@
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -2413,13 +2413,13 @@
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
         <v>87</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -2428,13 +2428,13 @@
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
         <v>90</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -2443,13 +2443,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
         <v>93</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -2458,13 +2458,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
         <v>96</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -2473,13 +2473,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
         <v>99</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" t="s">
-        <v>101</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
         <v>102</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>103</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -2503,13 +2503,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
         <v>105</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>106</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
@@ -2518,13 +2518,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
         <v>108</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>109</v>
-      </c>
-      <c r="C23" t="s">
-        <v>110</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -2533,13 +2533,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>112</v>
-      </c>
-      <c r="C24" t="s">
-        <v>113</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -2548,13 +2548,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>115</v>
-      </c>
-      <c r="C25" t="s">
-        <v>116</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -2563,13 +2563,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
         <v>117</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>118</v>
-      </c>
-      <c r="C26" t="s">
-        <v>119</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -2578,13 +2578,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
         <v>120</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>122</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
@@ -2593,13 +2593,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s">
         <v>123</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>124</v>
-      </c>
-      <c r="C28" t="s">
-        <v>125</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -2608,13 +2608,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
         <v>126</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>127</v>
-      </c>
-      <c r="C29" t="s">
-        <v>128</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
         <v>129</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" t="s">
-        <v>131</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -2638,13 +2638,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
         <v>132</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>133</v>
-      </c>
-      <c r="C31" t="s">
-        <v>134</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -2653,13 +2653,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s">
         <v>135</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>136</v>
-      </c>
-      <c r="C32" t="s">
-        <v>137</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
@@ -2668,13 +2668,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s">
         <v>138</v>
       </c>
-      <c r="B33" t="s">
-        <v>139</v>
-      </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
@@ -2683,13 +2683,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
         <v>140</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>141</v>
-      </c>
-      <c r="C34" t="s">
-        <v>142</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
@@ -2698,13 +2698,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
         <v>143</v>
       </c>
-      <c r="B35" t="s">
-        <v>144</v>
-      </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
@@ -2713,13 +2713,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
         <v>145</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>146</v>
-      </c>
-      <c r="C36" t="s">
-        <v>147</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
@@ -2728,13 +2728,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
         <v>148</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>149</v>
-      </c>
-      <c r="C37" t="s">
-        <v>150</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
@@ -2743,13 +2743,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" t="s">
         <v>151</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>152</v>
-      </c>
-      <c r="C38" t="s">
-        <v>153</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
@@ -2758,13 +2758,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" t="s">
         <v>154</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>155</v>
-      </c>
-      <c r="C39" t="s">
-        <v>156</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
@@ -2773,13 +2773,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
         <v>157</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>158</v>
-      </c>
-      <c r="C40" t="s">
-        <v>159</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
@@ -2788,13 +2788,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" t="s">
         <v>160</v>
       </c>
-      <c r="B41" t="s">
-        <v>161</v>
-      </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
         <v>162</v>
       </c>
-      <c r="B42" t="s">
-        <v>163</v>
-      </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
@@ -2818,13 +2818,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
         <v>164</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>165</v>
-      </c>
-      <c r="C43" t="s">
-        <v>166</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
         <v>167</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>168</v>
-      </c>
-      <c r="C44" t="s">
-        <v>169</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
@@ -2848,13 +2848,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
         <v>170</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>171</v>
-      </c>
-      <c r="C45" t="s">
-        <v>172</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
@@ -2863,13 +2863,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
         <v>173</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>174</v>
-      </c>
-      <c r="C46" t="s">
-        <v>175</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" t="s">
         <v>176</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>177</v>
-      </c>
-      <c r="C47" t="s">
-        <v>178</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
@@ -2893,13 +2893,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" t="s">
         <v>179</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>180</v>
-      </c>
-      <c r="C48" t="s">
-        <v>181</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
@@ -2908,13 +2908,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" t="s">
         <v>182</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>183</v>
-      </c>
-      <c r="C49" t="s">
-        <v>184</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
@@ -2923,13 +2923,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" t="s">
         <v>185</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>186</v>
-      </c>
-      <c r="C50" t="s">
-        <v>187</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
@@ -2938,13 +2938,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" t="s">
         <v>188</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>189</v>
-      </c>
-      <c r="C51" t="s">
-        <v>190</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
@@ -2953,13 +2953,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" t="s">
         <v>191</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>192</v>
-      </c>
-      <c r="C52" t="s">
-        <v>193</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
@@ -2968,13 +2968,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" t="s">
         <v>194</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>195</v>
-      </c>
-      <c r="C53" t="s">
-        <v>196</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
@@ -2983,13 +2983,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" t="s">
         <v>197</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>198</v>
-      </c>
-      <c r="C54" t="s">
-        <v>199</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
@@ -2998,13 +2998,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" t="s">
         <v>200</v>
       </c>
-      <c r="B55" t="s">
-        <v>201</v>
-      </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
@@ -3013,13 +3013,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" t="s">
         <v>202</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>203</v>
-      </c>
-      <c r="C56" t="s">
-        <v>204</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
@@ -3028,13 +3028,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
         <v>205</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>206</v>
-      </c>
-      <c r="C57" t="s">
-        <v>207</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
@@ -3043,13 +3043,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" t="s">
         <v>208</v>
       </c>
-      <c r="B58" t="s">
-        <v>209</v>
-      </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
@@ -3058,13 +3058,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" t="s">
         <v>210</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>211</v>
-      </c>
-      <c r="C59" t="s">
-        <v>212</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" t="s">
         <v>213</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>214</v>
-      </c>
-      <c r="C60" t="s">
-        <v>215</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12876" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12870" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Chars" sheetId="2" r:id="rId2"/>
+    <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
+    <sheet name="Resolutions" sheetId="2" r:id="rId2"/>
     <sheet name="aa" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -1056,7 +1056,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1067,20 +1067,20 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1592,25 +1592,25 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1755,7 +1755,7 @@
         <v>100</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N12" si="6">B3*L3</f>
+        <f t="shared" ref="N3:N11" si="6">B3*L3</f>
         <v>200</v>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <f>D6*F6</f>
+        <f t="shared" ref="G6:G11" si="7">D6*F6</f>
         <v>160</v>
       </c>
       <c r="H6">
@@ -1934,7 +1934,7 @@
         <v>100</v>
       </c>
       <c r="G7">
-        <f>D7*F7</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="H7">
@@ -1985,7 +1985,7 @@
         <v>100</v>
       </c>
       <c r="G8">
-        <f>D8*F8</f>
+        <f t="shared" si="7"/>
         <v>46.137339055793994</v>
       </c>
       <c r="H8">
@@ -2036,7 +2036,7 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <f>D9*F9</f>
+        <f t="shared" si="7"/>
         <v>22.668393782383419</v>
       </c>
       <c r="H9">
@@ -2087,7 +2087,7 @@
         <v>100</v>
       </c>
       <c r="G10">
-        <f>D10*F10</f>
+        <f t="shared" si="7"/>
         <v>441.14285714285711</v>
       </c>
       <c r="H10">
@@ -2127,18 +2127,18 @@
         <v>3088</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11" si="7">C11/B11</f>
+        <f t="shared" ref="D11" si="8">C11/B11</f>
         <v>4.411428571428571</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="8">MIN(B11, C11)</f>
+        <f t="shared" ref="E11" si="9">MIN(B11, C11)</f>
         <v>700</v>
       </c>
       <c r="F11">
         <v>24</v>
       </c>
       <c r="G11">
-        <f>D11*F11</f>
+        <f t="shared" si="7"/>
         <v>105.8742857142857</v>
       </c>
       <c r="H11">
@@ -2182,12 +2182,18 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2201,187 +2207,187 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="D2">
         <f>LEN(C2)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D60" si="0">LEN(C3)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <f>LEN(C3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <f>LEN(C4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <f>LEN(C5)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6">
+        <f>LEN(C6)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7">
+        <f>LEN(C7)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8">
+        <f>LEN(C8)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9">
+        <f>LEN(C9)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
+      <c r="D10">
+        <f>LEN(C10)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="D11">
+        <f>LEN(C11)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>71</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
+      <c r="D12">
+        <f>LEN(C12)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>75</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>77</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
+      <c r="D13">
+        <f>LEN(C13)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -2392,701 +2398,704 @@
         <v>82</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f>LEN(C14)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15">
+        <f>LEN(C15)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <f>LEN(C16)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <f>LEN(C17)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <f>LEN(C18)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19">
+        <f>LEN(C19)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20">
+        <f>LEN(C20)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21">
+        <f>LEN(C21)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22">
+        <f>LEN(C22)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <f>LEN(C23)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <f>LEN(C24)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B25" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C25" t="s">
         <v>85</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
+      <c r="D25">
+        <f>LEN(C25)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>86</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
+      <c r="D26">
+        <f>LEN(C26)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>92</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C27" t="s">
         <v>94</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
+      <c r="D27">
+        <f>LEN(C27)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28">
+        <f>LEN(C28)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29">
+        <f>LEN(C29)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30">
+        <f>LEN(C30)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31">
+        <f>LEN(C31)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32">
+        <f>LEN(C32)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33">
+        <f>LEN(C33)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34">
+        <f>LEN(C34)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35">
+        <f>LEN(C35)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36">
+        <f>LEN(C36)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37">
+        <f>LEN(C37)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <f>LEN(C38)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39">
+        <f>LEN(C39)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40">
+        <f>LEN(C40)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41">
+        <f>LEN(C41)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>95</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B42" t="s">
         <v>96</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C42" t="s">
         <v>97</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
+      <c r="D42">
+        <f>LEN(C42)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>104</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B43" t="s">
         <v>105</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C43" t="s">
         <v>106</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
+      <c r="D43">
+        <f>LEN(C43)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44">
+        <f>LEN(C44)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45">
+        <f>LEN(C45)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46">
+        <f>LEN(C46)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <f>LEN(C47)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48">
+        <f>LEN(C48)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49">
+        <f>LEN(C49)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50">
+        <f>LEN(C50)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51">
+        <f>LEN(C51)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>125</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B52" t="s">
         <v>126</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C52" t="s">
         <v>127</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
+      <c r="D52">
+        <f>LEN(C52)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53">
+        <f>LEN(C53)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54">
+        <f>LEN(C54)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55">
+        <f>LEN(C55)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56">
+        <f>LEN(C56)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57">
+        <f>LEN(C57)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58">
+        <f>LEN(C58)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59">
+        <f>LEN(C59)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>131</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B60" t="s">
         <v>132</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C60" t="s">
         <v>133</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
+      <c r="D60">
+        <f>LEN(C60)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>163</v>
-      </c>
-      <c r="B43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" t="s">
-        <v>171</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" t="s">
-        <v>173</v>
-      </c>
-      <c r="C46" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>178</v>
-      </c>
-      <c r="B48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" t="s">
-        <v>185</v>
-      </c>
-      <c r="C50" t="s">
-        <v>186</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>187</v>
-      </c>
-      <c r="B51" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" t="s">
-        <v>189</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>193</v>
-      </c>
-      <c r="B53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>201</v>
-      </c>
-      <c r="B56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C56" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>204</v>
-      </c>
-      <c r="B57" t="s">
-        <v>205</v>
-      </c>
-      <c r="C57" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>207</v>
-      </c>
-      <c r="B58" t="s">
-        <v>208</v>
-      </c>
-      <c r="C58" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>209</v>
-      </c>
-      <c r="B59" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" t="s">
-        <v>211</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" t="s">
-        <v>213</v>
-      </c>
-      <c r="C60" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:D60">
+    <sortCondition descending="1" ref="D1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12870" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="3630" windowHeight="6810" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
     <sheet name="Resolutions" sheetId="2" r:id="rId2"/>
     <sheet name="aa" sheetId="3" r:id="rId3"/>
+    <sheet name="Words" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="229">
   <si>
     <t>orientation</t>
   </si>
@@ -689,6 +691,36 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>iPhone First Gen</t>
+  </si>
+  <si>
+    <t>Another</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Retry</t>
+  </si>
+  <si>
+    <t>Again</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Samsung S23</t>
+  </si>
+  <si>
+    <t>Common Mobile Screen 2023</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Game</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1088,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1589,39 +1621,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -1657,22 +1689,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2">
+        <v>1440</v>
+      </c>
+      <c r="C2">
         <v>3088</v>
       </c>
-      <c r="C2">
-        <v>1440</v>
-      </c>
       <c r="D2">
-        <f t="shared" ref="D2:D10" si="0">C2/B2</f>
+        <f>B2/C2</f>
         <v>0.46632124352331605</v>
       </c>
       <c r="E2">
-        <f>MIN(B2, C2)</f>
+        <f>MIN(C2, B2)</f>
         <v>1440</v>
       </c>
       <c r="F2">
@@ -1697,222 +1729,222 @@
         <v>144</v>
       </c>
       <c r="L2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M2">
+        <f>B2*L2</f>
+        <v>288</v>
+      </c>
+      <c r="N2">
         <f>C2*L2</f>
-        <v>144</v>
-      </c>
-      <c r="N2">
-        <f>B2*L2</f>
-        <v>308.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>617.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
         <v>2000</v>
       </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f>B3/C3</f>
         <v>0.5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="1">MIN(B3, C3)</f>
+        <f>MIN(C3, B3)</f>
         <v>1000</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="2">D3*F3</f>
+        <f t="shared" ref="G3:G5" si="0">D3*F3</f>
         <v>50</v>
       </c>
       <c r="H3">
         <v>0.1</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="3">(E3*H3) / 100</f>
+        <f t="shared" ref="I3:I12" si="1">(E3*H3) / 100</f>
         <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K11" si="4">F3*I3*J3</f>
+        <f t="shared" ref="K3:K12" si="2">F3*I3*J3</f>
         <v>100</v>
       </c>
       <c r="L3">
         <v>0.1</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M9" si="5">C3*L3</f>
+        <f>B3*L3</f>
         <v>100</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N11" si="6">B3*L3</f>
+        <f>C3*L3</f>
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
+        <v>1080</v>
+      </c>
+      <c r="C4">
         <v>2408</v>
       </c>
-      <c r="C4">
-        <v>1080</v>
-      </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f>B4/C4</f>
         <v>0.44850498338870431</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f>MIN(C4, B4)</f>
         <v>1080</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>44.85049833887043</v>
       </c>
       <c r="H4">
         <v>0.1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.08</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="L4">
         <v>0.1</v>
       </c>
       <c r="M4">
-        <f t="shared" si="5"/>
+        <f>B4*L4</f>
         <v>108</v>
       </c>
       <c r="N4">
-        <f t="shared" si="6"/>
+        <f>C4*L4</f>
         <v>240.8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
+        <v>3840</v>
+      </c>
+      <c r="C5">
         <v>2160</v>
       </c>
-      <c r="C5">
-        <v>3840</v>
-      </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>B5/C5</f>
         <v>1.7777777777777777</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f>MIN(C5, B5)</f>
         <v>2160</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>177.77777777777777</v>
       </c>
       <c r="H5">
         <v>0.1</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.16</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="L5">
         <v>0.1</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
+        <f>B5*L5</f>
         <v>384</v>
       </c>
       <c r="N5">
-        <f t="shared" si="6"/>
+        <f>C5*L5</f>
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
+        <v>1280</v>
+      </c>
+      <c r="C6">
         <v>800</v>
       </c>
-      <c r="C6">
-        <v>1280</v>
-      </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>B6/C6</f>
         <v>1.6</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f>MIN(C6, B6)</f>
         <v>800</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G11" si="7">D6*F6</f>
+        <f t="shared" ref="G6:G12" si="3">D6*F6</f>
         <v>160</v>
       </c>
       <c r="H6">
         <v>0.1</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="L6">
         <v>0.1</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
+        <f>B6*L6</f>
         <v>128</v>
       </c>
       <c r="N6">
-        <f t="shared" si="6"/>
+        <f>C6*L6</f>
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1923,252 +1955,338 @@
         <v>1000</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f>B7/C7</f>
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f>MIN(C7, B7)</f>
         <v>1000</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H7">
         <v>0.1</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L7">
         <v>0.1</v>
       </c>
       <c r="M7">
-        <f t="shared" si="5"/>
+        <f>B7*L7</f>
         <v>100</v>
       </c>
       <c r="N7">
-        <f t="shared" si="6"/>
+        <f>C7*L7</f>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8">
+        <v>1290</v>
+      </c>
+      <c r="C8">
         <v>2796</v>
       </c>
-      <c r="C8">
-        <v>1290</v>
-      </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>B8/C8</f>
         <v>0.46137339055793991</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f>MIN(C8, B8)</f>
         <v>1290</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>46.137339055793994</v>
       </c>
       <c r="H8">
         <v>0.1</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.29</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="L8">
         <v>0.1</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f>B8*L8</f>
         <v>129</v>
       </c>
       <c r="N8">
-        <f t="shared" si="6"/>
+        <f>C8*L8</f>
         <v>279.60000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="B9">
+        <v>700</v>
+      </c>
+      <c r="C9">
         <v>3088</v>
       </c>
-      <c r="C9">
-        <v>700</v>
-      </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f>B9/C9</f>
         <v>0.2266839378238342</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f>MIN(C9, B9)</f>
         <v>700</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="G9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>22.668393782383419</v>
       </c>
       <c r="H9">
         <v>0.1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="L9">
         <v>0.1</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f>B9*L9</f>
         <v>70</v>
       </c>
       <c r="N9">
-        <f t="shared" si="6"/>
+        <f>C9*L9</f>
         <v>308.8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10">
+        <v>3088</v>
+      </c>
+      <c r="C10">
         <v>700</v>
       </c>
-      <c r="C10">
-        <v>3088</v>
-      </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>B10/C10</f>
         <v>4.411428571428571</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f>MIN(C10, B10)</f>
         <v>700</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>441.14285714285711</v>
       </c>
       <c r="H10">
         <v>0.1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="L10">
         <v>0.1</v>
       </c>
       <c r="M10">
+        <f>B10*L10</f>
+        <v>308.8</v>
+      </c>
+      <c r="N10">
         <f>C10*L10</f>
-        <v>308.8</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="B11">
-        <v>700</v>
+        <v>320</v>
       </c>
       <c r="C11">
-        <v>3088</v>
+        <v>480</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11" si="8">C11/B11</f>
-        <v>4.411428571428571</v>
+        <f>B11/C11</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="9">MIN(B11, C11)</f>
-        <v>700</v>
+        <f>MIN(C11, B11)</f>
+        <v>320</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <f t="shared" si="7"/>
-        <v>105.8742857142857</v>
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
       </c>
       <c r="H11">
-        <v>0.41599999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
-        <v>2.9119999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
-        <v>69.888000000000005</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="L11">
         <v>0.1</v>
       </c>
       <c r="M11">
+        <f>B11*L11</f>
+        <v>32</v>
+      </c>
+      <c r="N11">
         <f>C11*L11</f>
-        <v>308.8</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12">
+        <v>1080</v>
+      </c>
+      <c r="C12">
+        <v>2340</v>
+      </c>
+      <c r="D12">
+        <f>B12/C12</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="E12">
+        <f>MIN(C12, B12)</f>
+        <v>1080</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="L12">
+        <v>0.2</v>
+      </c>
+      <c r="M12">
+        <f>B12*L12</f>
+        <v>216</v>
+      </c>
+      <c r="N12">
+        <f>C12*L12</f>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13">
+        <v>360</v>
+      </c>
+      <c r="C13">
+        <v>800</v>
+      </c>
+      <c r="D13">
+        <f>B13/C13</f>
+        <v>0.45</v>
+      </c>
+      <c r="E13">
+        <f>MIN(C13, B13)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1920</v>
+      </c>
+      <c r="C14">
+        <v>1080</v>
+      </c>
+      <c r="D14">
+        <f>B14/C14</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="E14">
+        <f>MIN(C14, B14)</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2218,7 +2336,7 @@
         <v>203</v>
       </c>
       <c r="D2">
-        <f>LEN(C2)</f>
+        <f t="shared" ref="D2:D33" si="0">LEN(C2)</f>
         <v>11</v>
       </c>
     </row>
@@ -2233,7 +2351,7 @@
         <v>65</v>
       </c>
       <c r="D3">
-        <f>LEN(C3)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2248,7 +2366,7 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <f>LEN(C4)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2263,7 +2381,7 @@
         <v>103</v>
       </c>
       <c r="D5">
-        <f>LEN(C5)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2278,7 +2396,7 @@
         <v>112</v>
       </c>
       <c r="D6">
-        <f>LEN(C6)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2293,7 +2411,7 @@
         <v>118</v>
       </c>
       <c r="D7">
-        <f>LEN(C7)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2308,7 +2426,7 @@
         <v>174</v>
       </c>
       <c r="D8">
-        <f>LEN(C8)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2323,7 +2441,7 @@
         <v>180</v>
       </c>
       <c r="D9">
-        <f>LEN(C9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2338,7 +2456,7 @@
         <v>53</v>
       </c>
       <c r="D10">
-        <f>LEN(C10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2353,7 +2471,7 @@
         <v>56</v>
       </c>
       <c r="D11">
-        <f>LEN(C11)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2368,7 +2486,7 @@
         <v>71</v>
       </c>
       <c r="D12">
-        <f>LEN(C12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2383,7 +2501,7 @@
         <v>77</v>
       </c>
       <c r="D13">
-        <f>LEN(C13)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2398,7 +2516,7 @@
         <v>82</v>
       </c>
       <c r="D14">
-        <f>LEN(C14)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2413,7 +2531,7 @@
         <v>91</v>
       </c>
       <c r="D15">
-        <f>LEN(C15)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2428,7 +2546,7 @@
         <v>109</v>
       </c>
       <c r="D16">
-        <f>LEN(C16)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2443,7 +2561,7 @@
         <v>56</v>
       </c>
       <c r="D17">
-        <f>LEN(C17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2458,11 +2576,11 @@
         <v>56</v>
       </c>
       <c r="D18">
-        <f>LEN(C18)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>163</v>
       </c>
@@ -2473,7 +2591,7 @@
         <v>165</v>
       </c>
       <c r="D19">
-        <f>LEN(C19)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2488,7 +2606,7 @@
         <v>171</v>
       </c>
       <c r="D20">
-        <f>LEN(C20)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2503,7 +2621,7 @@
         <v>189</v>
       </c>
       <c r="D21">
-        <f>LEN(C21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2518,7 +2636,7 @@
         <v>206</v>
       </c>
       <c r="D22">
-        <f>LEN(C22)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2533,7 +2651,7 @@
         <v>47</v>
       </c>
       <c r="D23">
-        <f>LEN(C23)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2548,7 +2666,7 @@
         <v>59</v>
       </c>
       <c r="D24">
-        <f>LEN(C24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2563,7 +2681,7 @@
         <v>85</v>
       </c>
       <c r="D25">
-        <f>LEN(C25)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2578,7 +2696,7 @@
         <v>88</v>
       </c>
       <c r="D26">
-        <f>LEN(C26)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2593,7 +2711,7 @@
         <v>94</v>
       </c>
       <c r="D27">
-        <f>LEN(C27)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2608,7 +2726,7 @@
         <v>115</v>
       </c>
       <c r="D28">
-        <f>LEN(C28)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2623,7 +2741,7 @@
         <v>121</v>
       </c>
       <c r="D29">
-        <f>LEN(C29)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2638,7 +2756,7 @@
         <v>124</v>
       </c>
       <c r="D30">
-        <f>LEN(C30)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2653,11 +2771,11 @@
         <v>146</v>
       </c>
       <c r="D31">
-        <f>LEN(C31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -2668,11 +2786,11 @@
         <v>149</v>
       </c>
       <c r="D32">
-        <f>LEN(C32)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -2683,7 +2801,7 @@
         <v>152</v>
       </c>
       <c r="D33">
-        <f>LEN(C33)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2698,7 +2816,7 @@
         <v>155</v>
       </c>
       <c r="D34">
-        <f>LEN(C34)</f>
+        <f t="shared" ref="D34:D65" si="1">LEN(C34)</f>
         <v>5</v>
       </c>
     </row>
@@ -2713,7 +2831,7 @@
         <v>85</v>
       </c>
       <c r="D35">
-        <f>LEN(C35)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2728,7 +2846,7 @@
         <v>177</v>
       </c>
       <c r="D36">
-        <f>LEN(C36)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2743,7 +2861,7 @@
         <v>47</v>
       </c>
       <c r="D37">
-        <f>LEN(C37)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2758,7 +2876,7 @@
         <v>50</v>
       </c>
       <c r="D38">
-        <f>LEN(C38)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2773,7 +2891,7 @@
         <v>62</v>
       </c>
       <c r="D39">
-        <f>LEN(C39)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2788,11 +2906,11 @@
         <v>74</v>
       </c>
       <c r="D40">
-        <f>LEN(C40)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -2803,7 +2921,7 @@
         <v>74</v>
       </c>
       <c r="D41">
-        <f>LEN(C41)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2818,7 +2936,7 @@
         <v>97</v>
       </c>
       <c r="D42">
-        <f>LEN(C42)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2833,7 +2951,7 @@
         <v>106</v>
       </c>
       <c r="D43">
-        <f>LEN(C43)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2848,7 +2966,7 @@
         <v>130</v>
       </c>
       <c r="D44">
-        <f>LEN(C44)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2863,7 +2981,7 @@
         <v>136</v>
       </c>
       <c r="D45">
-        <f>LEN(C45)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2878,7 +2996,7 @@
         <v>158</v>
       </c>
       <c r="D46">
-        <f>LEN(C46)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2893,7 +3011,7 @@
         <v>50</v>
       </c>
       <c r="D47">
-        <f>LEN(C47)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2908,7 +3026,7 @@
         <v>183</v>
       </c>
       <c r="D48">
-        <f>LEN(C48)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2923,7 +3041,7 @@
         <v>192</v>
       </c>
       <c r="D49">
-        <f>LEN(C49)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2938,7 +3056,7 @@
         <v>195</v>
       </c>
       <c r="D50">
-        <f>LEN(C50)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2953,7 +3071,7 @@
         <v>198</v>
       </c>
       <c r="D51">
-        <f>LEN(C51)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2968,7 +3086,7 @@
         <v>127</v>
       </c>
       <c r="D52">
-        <f>LEN(C52)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -2983,7 +3101,7 @@
         <v>141</v>
       </c>
       <c r="D53">
-        <f>LEN(C53)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -2998,7 +3116,7 @@
         <v>168</v>
       </c>
       <c r="D54">
-        <f>LEN(C54)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3013,7 +3131,7 @@
         <v>186</v>
       </c>
       <c r="D55">
-        <f>LEN(C55)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3028,7 +3146,7 @@
         <v>127</v>
       </c>
       <c r="D56">
-        <f>LEN(C56)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3043,7 +3161,7 @@
         <v>211</v>
       </c>
       <c r="D57">
-        <f>LEN(C57)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3058,7 +3176,7 @@
         <v>214</v>
       </c>
       <c r="D58">
-        <f>LEN(C58)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3073,7 +3191,7 @@
         <v>68</v>
       </c>
       <c r="D59">
-        <f>LEN(C59)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3088,7 +3206,7 @@
         <v>133</v>
       </c>
       <c r="D60">
-        <f>LEN(C60)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3098,4 +3216,117 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1440</v>
+      </c>
+      <c r="B1">
+        <f>A1/2</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>650</v>
+      </c>
+      <c r="B2">
+        <f>A2/2</f>
+        <v>325</v>
+      </c>
+      <c r="C2">
+        <f>B1-B2</f>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3088</v>
+      </c>
+      <c r="B3">
+        <f>A3/2</f>
+        <v>1544</v>
+      </c>
+      <c r="C3">
+        <f>B3-125</f>
+        <v>1419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A54414-1238-47E2-9215-F62DFB044FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="3630" windowHeight="6810" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="Words" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="230">
   <si>
     <t>orientation</t>
   </si>
@@ -721,12 +727,15 @@
   </si>
   <si>
     <t>Game</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S8 Ultra 5G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1088,18 +1097,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1231,7 @@
         <v>3120</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E18" si="0">C4/D4</f>
+        <f t="shared" ref="E4:E19" si="0">C4/D4</f>
         <v>0.46153846153846156</v>
       </c>
       <c r="G4">
@@ -1611,6 +1620,24 @@
       <c r="E18">
         <f t="shared" si="0"/>
         <v>0.46205357142857145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2960</v>
+      </c>
+      <c r="D19">
+        <v>1848</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.6017316017316017</v>
       </c>
     </row>
   </sheetData>
@@ -1620,11 +1647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,11 +1727,11 @@
         <v>3088</v>
       </c>
       <c r="D2">
-        <f>B2/C2</f>
+        <f t="shared" ref="D2:D15" si="0">B2/C2</f>
         <v>0.46632124352331605</v>
       </c>
       <c r="E2">
-        <f>MIN(C2, B2)</f>
+        <f t="shared" ref="E2:E15" si="1">MIN(C2, B2)</f>
         <v>1440</v>
       </c>
       <c r="F2">
@@ -1732,11 +1759,11 @@
         <v>0.2</v>
       </c>
       <c r="M2">
-        <f>B2*L2</f>
+        <f t="shared" ref="M2:M15" si="2">B2*L2</f>
         <v>288</v>
       </c>
       <c r="N2">
-        <f>C2*L2</f>
+        <f t="shared" ref="N2:N15" si="3">C2*L2</f>
         <v>617.6</v>
       </c>
     </row>
@@ -1751,43 +1778,43 @@
         <v>2000</v>
       </c>
       <c r="D3">
-        <f>B3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E3">
-        <f>MIN(C3, B3)</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="0">D3*F3</f>
+        <f t="shared" ref="G3:G5" si="4">D3*F3</f>
         <v>50</v>
       </c>
       <c r="H3">
         <v>0.1</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I12" si="1">(E3*H3) / 100</f>
+        <f t="shared" ref="I3:I11" si="5">(E3*H3) / 100</f>
         <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K12" si="2">F3*I3*J3</f>
+        <f t="shared" ref="K3:K11" si="6">F3*I3*J3</f>
         <v>100</v>
       </c>
       <c r="L3">
         <v>0.1</v>
       </c>
       <c r="M3">
-        <f>B3*L3</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="N3">
-        <f>C3*L3</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -1802,43 +1829,43 @@
         <v>2408</v>
       </c>
       <c r="D4">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>0.44850498338870431</v>
       </c>
       <c r="E4">
-        <f>MIN(C4, B4)</f>
+        <f t="shared" si="1"/>
         <v>1080</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>44.85049833887043</v>
       </c>
       <c r="H4">
         <v>0.1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.08</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="L4">
+        <v>0.1</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="L4">
-        <v>0.1</v>
-      </c>
-      <c r="M4">
-        <f>B4*L4</f>
-        <v>108</v>
-      </c>
       <c r="N4">
-        <f>C4*L4</f>
+        <f t="shared" si="3"/>
         <v>240.8</v>
       </c>
     </row>
@@ -1853,43 +1880,43 @@
         <v>2160</v>
       </c>
       <c r="D5">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="E5">
-        <f>MIN(C5, B5)</f>
+        <f t="shared" si="1"/>
         <v>2160</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>177.77777777777777</v>
       </c>
       <c r="H5">
         <v>0.1</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.16</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>216</v>
       </c>
       <c r="L5">
         <v>0.1</v>
       </c>
       <c r="M5">
-        <f>B5*L5</f>
+        <f t="shared" si="2"/>
         <v>384</v>
       </c>
       <c r="N5">
-        <f>C5*L5</f>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
     </row>
@@ -1904,43 +1931,43 @@
         <v>800</v>
       </c>
       <c r="D6">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="E6">
-        <f>MIN(C6, B6)</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G12" si="3">D6*F6</f>
+        <f t="shared" ref="G6:G15" si="7">D6*F6</f>
         <v>160</v>
       </c>
       <c r="H6">
         <v>0.1</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="L6">
         <v>0.1</v>
       </c>
       <c r="M6">
-        <f>B6*L6</f>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="N6">
-        <f>C6*L6</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
@@ -1955,43 +1982,43 @@
         <v>1000</v>
       </c>
       <c r="D7">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7">
-        <f>MIN(C7, B7)</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="H7">
         <v>0.1</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>0.1</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="L7">
-        <v>0.1</v>
-      </c>
-      <c r="M7">
-        <f>B7*L7</f>
-        <v>100</v>
-      </c>
       <c r="N7">
-        <f>C7*L7</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -2006,43 +2033,43 @@
         <v>2796</v>
       </c>
       <c r="D8">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>0.46137339055793991</v>
       </c>
       <c r="E8">
-        <f>MIN(C8, B8)</f>
+        <f t="shared" si="1"/>
         <v>1290</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>46.137339055793994</v>
       </c>
       <c r="H8">
         <v>0.1</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.29</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
+        <f t="shared" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="L8">
+        <v>0.1</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="L8">
-        <v>0.1</v>
-      </c>
-      <c r="M8">
-        <f>B8*L8</f>
-        <v>129</v>
-      </c>
       <c r="N8">
-        <f>C8*L8</f>
+        <f t="shared" si="3"/>
         <v>279.60000000000002</v>
       </c>
     </row>
@@ -2057,43 +2084,43 @@
         <v>3088</v>
       </c>
       <c r="D9">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>0.2266839378238342</v>
       </c>
       <c r="E9">
-        <f>MIN(C9, B9)</f>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.668393782383419</v>
       </c>
       <c r="H9">
         <v>0.1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="L9">
-        <v>0.1</v>
-      </c>
-      <c r="M9">
-        <f>B9*L9</f>
-        <v>70</v>
-      </c>
       <c r="N9">
-        <f>C9*L9</f>
+        <f t="shared" si="3"/>
         <v>308.8</v>
       </c>
     </row>
@@ -2108,43 +2135,43 @@
         <v>700</v>
       </c>
       <c r="D10">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>4.411428571428571</v>
       </c>
       <c r="E10">
-        <f>MIN(C10, B10)</f>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>441.14285714285711</v>
       </c>
       <c r="H10">
         <v>0.1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="L10">
         <v>0.1</v>
       </c>
       <c r="M10">
-        <f>B10*L10</f>
+        <f t="shared" si="2"/>
         <v>308.8</v>
       </c>
       <c r="N10">
-        <f>C10*L10</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -2159,43 +2186,43 @@
         <v>480</v>
       </c>
       <c r="D11">
-        <f>B11/C11</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="E11">
-        <f>MIN(C11, B11)</f>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>66.666666666666657</v>
       </c>
       <c r="H11">
         <v>0.1</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.32</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="L11">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="L11">
-        <v>0.1</v>
-      </c>
-      <c r="M11">
-        <f>B11*L11</f>
-        <v>32</v>
-      </c>
       <c r="N11">
-        <f>C11*L11</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
@@ -2210,44 +2237,44 @@
         <v>2340</v>
       </c>
       <c r="D12">
-        <f>B12/C12</f>
+        <f t="shared" si="0"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="E12">
-        <f>MIN(C12, B12)</f>
+        <f t="shared" si="1"/>
         <v>1080</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>46.153846153846153</v>
       </c>
       <c r="H12">
         <v>0.1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f>(E12*H12) / 100</f>
         <v>1.08</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
+        <f>F12*I12*J12</f>
+        <v>108</v>
+      </c>
+      <c r="L12">
+        <v>0.1</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="L12">
-        <v>0.2</v>
-      </c>
-      <c r="M12">
-        <f>B12*L12</f>
-        <v>216</v>
-      </c>
       <c r="N12">
-        <f>C12*L12</f>
-        <v>468</v>
+        <f t="shared" si="3"/>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2261,12 +2288,44 @@
         <v>800</v>
       </c>
       <c r="D13">
-        <f>B13/C13</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="E13">
-        <f>MIN(C13, B13)</f>
+        <f t="shared" si="1"/>
         <v>360</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I15" si="8">(E13*H13) / 100</f>
+        <v>0.36</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K15" si="9">F13*I13*J13</f>
+        <v>36</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2277,12 +2336,92 @@
         <v>1080</v>
       </c>
       <c r="D14">
-        <f>B14/C14</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="E14">
-        <f>MIN(C14, B14)</f>
+        <f t="shared" si="1"/>
         <v>1080</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="7"/>
+        <v>177.77777777777777</v>
+      </c>
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>1.08</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+      <c r="L14">
+        <v>0.1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2960</v>
+      </c>
+      <c r="C15">
+        <v>1848</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.6017316017316017</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1848</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="7"/>
+        <v>160.17316017316017</v>
+      </c>
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="9"/>
+        <v>184.8</v>
+      </c>
+      <c r="L15">
+        <v>0.1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>296</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>184.8</v>
       </c>
     </row>
     <row r="30" spans="10:10" x14ac:dyDescent="0.25">
@@ -2296,7 +2435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2816,11 +2955,11 @@
         <v>155</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D65" si="1">LEN(C34)</f>
+        <f t="shared" ref="D34:D60" si="1">LEN(C34)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -2880,7 +3019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -3211,7 +3350,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3219,10 +3358,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3282,7 +3421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A54414-1238-47E2-9215-F62DFB044FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78228EA9-1711-4F36-9322-73F23B66CAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="242">
   <si>
     <t>orientation</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Min-Height-Width</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>item-percent</t>
   </si>
   <si>
@@ -730,13 +727,52 @@
   </si>
   <si>
     <t>Galaxy Tab S8 Ultra 5G</t>
+  </si>
+  <si>
+    <t>Design-Width</t>
+  </si>
+  <si>
+    <t>Design-Item-Size</t>
+  </si>
+  <si>
+    <t>Design-Height</t>
+  </si>
+  <si>
+    <t>Scale-Height</t>
+  </si>
+  <si>
+    <t>Ratio-Original-To-New</t>
+  </si>
+  <si>
+    <t>Selected Scale</t>
+  </si>
+  <si>
+    <t>Design-X</t>
+  </si>
+  <si>
+    <t>Design-Y</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Design-Size</t>
+  </si>
+  <si>
+    <t>Size-Scale</t>
+  </si>
+  <si>
+    <t>Scale-X</t>
+  </si>
+  <si>
+    <t>Scale-Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,8 +795,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,6 +821,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -782,17 +838,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1108,7 +1172,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D19"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1688,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1650,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,7 +1725,7 @@
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1689,31 +1753,31 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
         <v>215</v>
       </c>
-      <c r="H1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>216</v>
-      </c>
       <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
         <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1769,7 +1833,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -1973,7 +2037,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -2024,7 +2088,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>1290</v>
@@ -2075,7 +2139,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>700</v>
@@ -2126,7 +2190,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>3088</v>
@@ -2177,7 +2241,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11">
         <v>320</v>
@@ -2228,7 +2292,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12">
         <v>1080</v>
@@ -2279,7 +2343,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13">
         <v>360</v>
@@ -2426,7 +2490,7 @@
     </row>
     <row r="30" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2438,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,27 +2516,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
         <v>201</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>202</v>
-      </c>
-      <c r="C2" t="s">
-        <v>203</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D33" si="0">LEN(C2)</f>
@@ -2481,13 +2545,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
@@ -2496,13 +2560,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -2511,13 +2575,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -2526,13 +2590,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
         <v>110</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -2541,13 +2605,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
         <v>116</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -2556,13 +2620,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
         <v>172</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>173</v>
-      </c>
-      <c r="C8" t="s">
-        <v>174</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -2571,13 +2635,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
         <v>178</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>179</v>
-      </c>
-      <c r="C9" t="s">
-        <v>180</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -2586,13 +2650,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -2601,13 +2665,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -2616,13 +2680,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -2631,13 +2695,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -2646,13 +2710,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -2661,13 +2725,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
         <v>89</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -2676,13 +2740,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
         <v>107</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>108</v>
-      </c>
-      <c r="C16" t="s">
-        <v>109</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -2691,13 +2755,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
         <v>137</v>
       </c>
-      <c r="B17" t="s">
-        <v>138</v>
-      </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -2706,13 +2770,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
         <v>142</v>
       </c>
-      <c r="B18" t="s">
-        <v>143</v>
-      </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -2721,13 +2785,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
         <v>163</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>164</v>
-      </c>
-      <c r="C19" t="s">
-        <v>165</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -2736,13 +2800,13 @@
     </row>
     <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
         <v>169</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>170</v>
-      </c>
-      <c r="C20" t="s">
-        <v>171</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -2751,13 +2815,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" t="s">
         <v>187</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>188</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -2766,13 +2830,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" t="s">
         <v>204</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>205</v>
-      </c>
-      <c r="C22" t="s">
-        <v>206</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
@@ -2781,13 +2845,13 @@
     </row>
     <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -2796,13 +2860,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -2811,13 +2875,13 @@
     </row>
     <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -2826,13 +2890,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
         <v>86</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -2841,13 +2905,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
         <v>92</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>94</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
@@ -2856,13 +2920,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
         <v>113</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>114</v>
-      </c>
-      <c r="C28" t="s">
-        <v>115</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -2871,13 +2935,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
         <v>119</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>120</v>
-      </c>
-      <c r="C29" t="s">
-        <v>121</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
@@ -2886,13 +2950,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" t="s">
         <v>122</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>123</v>
-      </c>
-      <c r="C30" t="s">
-        <v>124</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -2901,13 +2965,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
         <v>144</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>145</v>
-      </c>
-      <c r="C31" t="s">
-        <v>146</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -2916,13 +2980,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
         <v>147</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>148</v>
-      </c>
-      <c r="C32" t="s">
-        <v>149</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
@@ -2931,13 +2995,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
         <v>150</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>151</v>
-      </c>
-      <c r="C33" t="s">
-        <v>152</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
@@ -2946,13 +3010,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
         <v>153</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>154</v>
-      </c>
-      <c r="C34" t="s">
-        <v>155</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:D60" si="1">LEN(C34)</f>
@@ -2961,13 +3025,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" t="s">
         <v>159</v>
       </c>
-      <c r="B35" t="s">
-        <v>160</v>
-      </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
@@ -2976,13 +3040,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" t="s">
         <v>175</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>176</v>
-      </c>
-      <c r="C36" t="s">
-        <v>177</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
@@ -2991,13 +3055,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" t="s">
         <v>199</v>
       </c>
-      <c r="B37" t="s">
-        <v>200</v>
-      </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
@@ -3006,13 +3070,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
         <v>48</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>49</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
@@ -3021,13 +3085,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
@@ -3036,13 +3100,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
         <v>72</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
@@ -3051,13 +3115,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
@@ -3066,13 +3130,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" t="s">
         <v>95</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" t="s">
-        <v>97</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
@@ -3081,13 +3145,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
         <v>104</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>105</v>
-      </c>
-      <c r="C43" t="s">
-        <v>106</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
@@ -3096,13 +3160,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
         <v>128</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>130</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
@@ -3111,13 +3175,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
         <v>134</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>135</v>
-      </c>
-      <c r="C45" t="s">
-        <v>136</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
@@ -3126,13 +3190,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
         <v>156</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>157</v>
-      </c>
-      <c r="C46" t="s">
-        <v>158</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
@@ -3141,13 +3205,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
         <v>161</v>
       </c>
-      <c r="B47" t="s">
-        <v>162</v>
-      </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
@@ -3156,13 +3220,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
         <v>181</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>182</v>
-      </c>
-      <c r="C48" t="s">
-        <v>183</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
@@ -3171,13 +3235,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" t="s">
         <v>190</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>191</v>
-      </c>
-      <c r="C49" t="s">
-        <v>192</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
@@ -3186,13 +3250,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" t="s">
         <v>193</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>194</v>
-      </c>
-      <c r="C50" t="s">
-        <v>195</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
@@ -3201,13 +3265,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" t="s">
         <v>196</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>197</v>
-      </c>
-      <c r="C51" t="s">
-        <v>198</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
@@ -3216,13 +3280,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
         <v>125</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" t="s">
-        <v>127</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
@@ -3231,13 +3295,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
         <v>139</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>140</v>
-      </c>
-      <c r="C53" t="s">
-        <v>141</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
@@ -3246,13 +3310,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" t="s">
         <v>166</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>167</v>
-      </c>
-      <c r="C54" t="s">
-        <v>168</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
@@ -3261,13 +3325,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
         <v>184</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>185</v>
-      </c>
-      <c r="C55" t="s">
-        <v>186</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
@@ -3276,13 +3340,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" t="s">
         <v>207</v>
       </c>
-      <c r="B56" t="s">
-        <v>208</v>
-      </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
@@ -3291,13 +3355,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" t="s">
         <v>209</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>210</v>
-      </c>
-      <c r="C57" t="s">
-        <v>211</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
@@ -3306,13 +3370,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" t="s">
         <v>212</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>213</v>
-      </c>
-      <c r="C58" t="s">
-        <v>214</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
@@ -3321,13 +3385,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
         <v>66</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>67</v>
-      </c>
-      <c r="C59" t="s">
-        <v>68</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
@@ -3336,13 +3400,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
         <v>131</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>132</v>
-      </c>
-      <c r="C60" t="s">
-        <v>133</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
@@ -3376,43 +3440,43 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
         <v>222</v>
-      </c>
-      <c r="B4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3422,50 +3486,142 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>288</v>
+      </c>
+      <c r="B2">
+        <v>617.6</v>
+      </c>
+      <c r="G2">
+        <f>C7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <f>A5/A2</f>
+        <v>1.7361111111111112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <f>F5*G2</f>
+        <v>250</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <f>H5*G2</f>
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <f>I5*G2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <f>A6/A2</f>
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1440</v>
       </c>
-      <c r="B1">
-        <f>A1/2</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>650</v>
-      </c>
-      <c r="B2">
-        <f>A2/2</f>
-        <v>325</v>
-      </c>
-      <c r="C2">
-        <f>B1-B2</f>
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B7">
         <v>3088</v>
       </c>
-      <c r="B3">
-        <f>A3/2</f>
-        <v>1544</v>
-      </c>
-      <c r="C3">
-        <f>B3-125</f>
-        <v>1419</v>
+      <c r="C7">
+        <f>A7/A2</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A54414-1238-47E2-9215-F62DFB044FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="12600" windowHeight="12876" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="Words" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -735,7 +729,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1097,31 +1091,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1647,29 +1641,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1727,11 +1721,11 @@
         <v>3088</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D15" si="0">B2/C2</f>
+        <f t="shared" ref="D2:D16" si="0">B2/C2</f>
         <v>0.46632124352331605</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E15" si="1">MIN(C2, B2)</f>
+        <f t="shared" ref="E2:E16" si="1">MIN(C2, B2)</f>
         <v>1440</v>
       </c>
       <c r="F2">
@@ -2422,6 +2416,22 @@
       <c r="N15">
         <f t="shared" si="3"/>
         <v>184.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>240</v>
+      </c>
+      <c r="C16">
+        <v>320</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="10:10" x14ac:dyDescent="0.25">
@@ -2435,22 +2445,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2464,7 +2474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -2479,7 +2489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2494,7 +2504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -2509,7 +2519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -2524,7 +2534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -2539,7 +2549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -2554,7 +2564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -2569,7 +2579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -2584,7 +2594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2599,7 +2609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2614,7 +2624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2629,7 +2639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -2659,7 +2669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -2674,7 +2684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -2689,7 +2699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -2704,7 +2714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -2719,7 +2729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>163</v>
       </c>
@@ -2734,7 +2744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -2749,7 +2759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>187</v>
       </c>
@@ -2764,7 +2774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>204</v>
       </c>
@@ -2779,7 +2789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2794,7 +2804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -2809,7 +2819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -2824,7 +2834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -2839,7 +2849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -2854,7 +2864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -2869,7 +2879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -2884,7 +2894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -2899,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -2914,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -2929,7 +2939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -2944,7 +2954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -2959,7 +2969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -2974,7 +2984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -2989,7 +2999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>199</v>
       </c>
@@ -3004,7 +3014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -3019,7 +3029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -3034,7 +3044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -3049,7 +3059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -3064,7 +3074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -3079,7 +3089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -3094,7 +3104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -3109,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -3124,7 +3134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>156</v>
       </c>
@@ -3139,7 +3149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -3154,7 +3164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -3169,7 +3179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>190</v>
       </c>
@@ -3184,7 +3194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -3199,7 +3209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>196</v>
       </c>
@@ -3214,7 +3224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -3229,7 +3239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>139</v>
       </c>
@@ -3244,7 +3254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -3259,7 +3269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>184</v>
       </c>
@@ -3274,7 +3284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>207</v>
       </c>
@@ -3289,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>209</v>
       </c>
@@ -3304,7 +3314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>212</v>
       </c>
@@ -3319,7 +3329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -3334,7 +3344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -3350,7 +3360,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
+  <sortState ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3358,17 +3368,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,14 +3431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78228EA9-1711-4F36-9322-73F23B66CAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697CC20-3F83-4402-B150-F71BEDA57348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="242">
   <si>
     <t>orientation</t>
   </si>
@@ -1712,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,11 +1792,11 @@
         <v>3088</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D15" si="0">B2/C2</f>
+        <f t="shared" ref="D2:D16" si="0">B2/C2</f>
         <v>0.46632124352331605</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E15" si="1">MIN(C2, B2)</f>
+        <f t="shared" ref="E2:E16" si="1">MIN(C2, B2)</f>
         <v>1440</v>
       </c>
       <c r="F2">
@@ -1823,395 +1824,392 @@
         <v>0.2</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M15" si="2">B2*L2</f>
+        <f t="shared" ref="M2:M16" si="2">B2*L2</f>
         <v>288</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N15" si="3">C2*L2</f>
+        <f t="shared" ref="N2:N16" si="3">C2*L2</f>
         <v>617.6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
       <c r="B3">
-        <v>1000</v>
+        <v>3088</v>
       </c>
       <c r="C3">
-        <v>2000</v>
+        <v>1440</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2.1444444444444444</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1440</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="4">D3*F3</f>
-        <v>50</v>
+        <f>D3*F3</f>
+        <v>214.44444444444443</v>
       </c>
       <c r="H3">
         <v>0.1</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="5">(E3*H3) / 100</f>
-        <v>1</v>
+        <f>(E3*H3) / 100</f>
+        <v>1.44</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K11" si="6">F3*I3*J3</f>
-        <v>100</v>
+        <f>F3*I3*J3</f>
+        <v>144</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>617.6</v>
       </c>
       <c r="N3">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="C4">
-        <v>2408</v>
+        <v>2000</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.44850498338870431</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
+        <f t="shared" ref="G4:G6" si="4">D4*F4</f>
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I12" si="5">(E4*H4) / 100</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K12" si="6">F4*I4*J4</f>
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>0.1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1080</v>
+      </c>
+      <c r="C5">
+        <v>2408</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.44850498338870431</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="4"/>
         <v>44.85049833887043</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <f t="shared" si="5"/>
         <v>1.08</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>0.1</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <f t="shared" si="3"/>
         <v>240.8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>3840</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>2160</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>2160</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <f t="shared" si="4"/>
         <v>177.77777777777777</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>0.1</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <f t="shared" si="5"/>
         <v>2.16</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>0.1</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1280</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>800</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G15" si="7">D6*F6</f>
+      <c r="G7">
+        <f t="shared" ref="G7:G16" si="7">D7*F7</f>
         <v>160</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>0.1</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>0.1</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1000</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1000</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>100</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>0.1</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>0.1</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1290</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2796</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>0.46137339055793991</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>1290</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <f t="shared" si="7"/>
         <v>46.137339055793994</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>0.1</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <f t="shared" si="5"/>
         <v>1.29</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <f t="shared" si="6"/>
         <v>129</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>0.1</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <f t="shared" si="3"/>
         <v>279.60000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>700</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>3088</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>0.2266839378238342</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>100</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="7"/>
         <v>22.668393782383419</v>
-      </c>
-      <c r="H9">
-        <v>0.1</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="5"/>
-        <v>0.7</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="L9">
-        <v>0.1</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
-        <v>308.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <v>3088</v>
-      </c>
-      <c r="C10">
-        <v>700</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>4.411428571428571</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="7"/>
-        <v>441.14285714285711</v>
       </c>
       <c r="H10">
         <v>0.1</v>
@@ -2232,264 +2230,315 @@
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>308.8</v>
+        <v>70</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>308.8</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>320</v>
+        <v>3088</v>
       </c>
       <c r="C11">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>4.411428571428571</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>700</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
       <c r="G11">
         <f t="shared" si="7"/>
-        <v>66.666666666666657</v>
+        <v>441.14285714285711</v>
       </c>
       <c r="H11">
         <v>0.1</v>
       </c>
       <c r="I11">
         <f t="shared" si="5"/>
-        <v>0.32</v>
+        <v>0.7</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="L11">
         <v>0.1</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>308.8</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B12">
-        <v>1080</v>
+        <v>320</v>
       </c>
       <c r="C12">
-        <v>2340</v>
+        <v>480</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>1080</v>
+        <v>320</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
       <c r="G12">
         <f t="shared" si="7"/>
-        <v>46.153846153846153</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="H12">
         <v>0.1</v>
       </c>
       <c r="I12">
-        <f>(E12*H12) / 100</f>
-        <v>1.08</v>
+        <f t="shared" si="5"/>
+        <v>0.32</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <f>F12*I12*J12</f>
-        <v>108</v>
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="L12">
         <v>0.1</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>234</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13">
-        <v>360</v>
+        <v>1080</v>
       </c>
       <c r="C13">
-        <v>800</v>
+        <v>2340</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>1080</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>46.153846153846153</v>
       </c>
       <c r="H13">
         <v>0.1</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I15" si="8">(E13*H13) / 100</f>
-        <v>0.36</v>
+        <f>(E13*H13) / 100</f>
+        <v>1.08</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K15" si="9">F13*I13*J13</f>
-        <v>36</v>
+        <f>F13*I13*J13</f>
+        <v>108</v>
       </c>
       <c r="L13">
         <v>0.1</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
       <c r="B14">
-        <v>1920</v>
+        <v>360</v>
       </c>
       <c r="C14">
-        <v>1080</v>
+        <v>800</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1.7777777777777777</v>
+        <v>0.45</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>1080</v>
+        <v>360</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14">
         <f t="shared" si="7"/>
-        <v>177.77777777777777</v>
+        <v>45</v>
       </c>
       <c r="H14">
         <v>0.1</v>
       </c>
       <c r="I14">
+        <f t="shared" ref="I14:I16" si="8">(E14*H14) / 100</f>
+        <v>0.36</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:K16" si="9">F14*I14*J14</f>
+        <v>36</v>
+      </c>
+      <c r="L14">
+        <v>0.1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1920</v>
+      </c>
+      <c r="C15">
+        <v>1080</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="7"/>
+        <v>177.77777777777777</v>
+      </c>
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <f t="shared" si="9"/>
         <v>108</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>0.1</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>2960</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>1848</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>1.6017316017316017</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f t="shared" si="1"/>
         <v>1848</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>100</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <f t="shared" si="7"/>
         <v>160.17316017316017</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>0.1</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <f t="shared" si="8"/>
         <v>1.8480000000000001</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <f t="shared" si="9"/>
         <v>184.8</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>0.1</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <f t="shared" si="2"/>
         <v>296</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <f t="shared" si="3"/>
         <v>184.8</v>
       </c>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J30" t="s">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2798,7 +2847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -2843,7 +2892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2873,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3486,138 +3535,236 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>E9</f>
+        <v>0.32383419689119169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>288</v>
       </c>
-      <c r="B2">
+      <c r="B5">
         <v>617.6</v>
       </c>
-      <c r="G2">
-        <f>C7</f>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <f>C5/A5</f>
+        <v>1.7361111111111112</v>
+      </c>
+      <c r="G5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <f>H5*I2</f>
+        <v>16.191709844559586</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <f>J5*I2</f>
+        <v>3.2383419689119171</v>
+      </c>
+      <c r="M5">
+        <f>K5*I2</f>
+        <v>3.2383419689119171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>288</v>
+      </c>
+      <c r="B6">
+        <v>617.6</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E9" si="0">C6/A6</f>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="G6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <f>H6*I2</f>
+        <v>16.191709844559586</v>
+      </c>
+      <c r="J6">
+        <v>3028</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <f>J6*I2</f>
+        <v>980.56994818652845</v>
+      </c>
+      <c r="M6">
+        <f>K6*I2</f>
+        <v>3.2383419689119171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>288</v>
+      </c>
+      <c r="B7">
+        <v>617.6</v>
+      </c>
+      <c r="C7">
+        <v>1440</v>
+      </c>
+      <c r="D7">
+        <v>3088</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>500</v>
-      </c>
-      <c r="B5">
-        <v>500</v>
-      </c>
-      <c r="C5">
-        <f>A5/A2</f>
-        <v>1.7361111111111112</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G7" t="s">
         <v>237</v>
       </c>
-      <c r="F5">
+      <c r="H7">
         <v>50</v>
       </c>
-      <c r="G5">
-        <f>F5*G2</f>
-        <v>250</v>
-      </c>
-      <c r="H5">
+      <c r="I7">
+        <f>H7*I2</f>
+        <v>16.191709844559586</v>
+      </c>
+      <c r="J7">
+        <v>3028</v>
+      </c>
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <f>H5*G2</f>
-        <v>50</v>
-      </c>
-      <c r="K5">
-        <f>I5*G2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>200</v>
-      </c>
-      <c r="B6">
-        <v>400</v>
-      </c>
-      <c r="C6">
-        <f>A6/A2</f>
-        <v>0.69444444444444442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="L7">
+        <f>J7*I2</f>
+        <v>980.56994818652845</v>
+      </c>
+      <c r="M7">
+        <f>K7*I2</f>
+        <v>3.2383419689119171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3088</v>
+      </c>
+      <c r="B8">
         <v>1440</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>3088</v>
       </c>
-      <c r="C7">
-        <f>A7/A2</f>
-        <v>5</v>
+      <c r="D8">
+        <v>1440</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3088</v>
+      </c>
+      <c r="B9">
+        <v>1440</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.32383419689119169</v>
       </c>
     </row>
   </sheetData>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697CC20-3F83-4402-B150-F71BEDA57348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="9615" windowHeight="5145" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -19,8 +13,7 @@
     <sheet name="Words" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="246">
   <si>
     <t>orientation</t>
   </si>
@@ -767,12 +760,24 @@
   </si>
   <si>
     <t>Scale-Y</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>Portrait</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>New-X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1162,18 +1167,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,7 +1717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2548,7 +2553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3463,7 +3468,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
+  <sortState ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3471,7 +3476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3534,239 +3539,381 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="4" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I2">
-        <f>E9</f>
-        <v>0.32383419689119169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>F9</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="O4" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5">
         <v>288</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>617.6</v>
-      </c>
-      <c r="C5">
-        <v>500</v>
       </c>
       <c r="D5">
         <v>500</v>
       </c>
       <c r="E5">
-        <f>C5/A5</f>
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <f>D5/B5</f>
         <v>1.7361111111111112</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>237</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>50</v>
       </c>
-      <c r="I5">
-        <f>H5*I2</f>
-        <v>16.191709844559586</v>
-      </c>
       <c r="J5">
-        <v>10</v>
+        <f>I5*J2</f>
+        <v>8.3333333333333321</v>
       </c>
       <c r="K5">
         <v>10</v>
       </c>
       <c r="L5">
-        <f>J5*I2</f>
-        <v>3.2383419689119171</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <f>K5*I2</f>
-        <v>3.2383419689119171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <f>K5*J2</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="N5">
+        <f>L5*J2</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="O5">
+        <f>MAX(K5, M5)-MIN(K5,M5)</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>288</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>617.6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>200</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>400</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E9" si="0">C6/A6</f>
+      <c r="F6">
+        <f t="shared" ref="F6:F10" si="0">D6/B6</f>
         <v>0.69444444444444442</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>237</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>50</v>
       </c>
-      <c r="I6">
-        <f>H6*I2</f>
-        <v>16.191709844559586</v>
-      </c>
       <c r="J6">
+        <f>I6*J2</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="K6">
         <v>3028</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>10</v>
       </c>
-      <c r="L6">
-        <f>J6*I2</f>
-        <v>980.56994818652845</v>
-      </c>
       <c r="M6">
-        <f>K6*I2</f>
-        <v>3.2383419689119171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <f>K6*J2</f>
+        <v>504.66666666666663</v>
+      </c>
+      <c r="N6">
+        <f>L6*J2</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O10" si="1">MAX(K6, M6)-MIN(K6,M6)</f>
+        <v>2523.3333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>288</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>617.6</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1440</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3088</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>237</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>50</v>
       </c>
-      <c r="I7">
-        <f>H7*I2</f>
-        <v>16.191709844559586</v>
-      </c>
       <c r="J7">
+        <f>I7*J2</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="K7">
         <v>3028</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>10</v>
       </c>
-      <c r="L7">
-        <f>J7*I2</f>
-        <v>980.56994818652845</v>
-      </c>
       <c r="M7">
-        <f>K7*I2</f>
-        <v>3.2383419689119171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <f>K7*J2</f>
+        <v>504.66666666666663</v>
+      </c>
+      <c r="N7">
+        <f>L7*J2</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>2523.3333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>3088</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>1440</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3088</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1440</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="J8">
+        <f t="shared" ref="J8:J10" si="2">I8*J3</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M10" si="3">K8*J3</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N10" si="4">L8*J3</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>3088</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1440</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <v>240</v>
+      </c>
+      <c r="E9">
+        <v>480</v>
+      </c>
+      <c r="F9">
+        <f>MIN(D9,E9)/MIN(B9,C9)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <f>I9*J2</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="K9">
+        <v>2988</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>K9*J2</f>
+        <v>498</v>
+      </c>
+      <c r="N9">
+        <f>L9*J2</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>MAX(B9,C9)-MIN(B9,C9)</f>
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10">
         <v>1000</v>
       </c>
-      <c r="D9">
+      <c r="C10">
         <v>1000</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.32383419689119169</v>
-      </c>
-    </row>
+      <c r="D10">
+        <v>800</v>
+      </c>
+      <c r="E10">
+        <v>800</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <f>I10*J2</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="K10">
+        <v>950</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>K10*J2</f>
+        <v>158.33333333333331</v>
+      </c>
+      <c r="N10">
+        <f>L10*J2</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>MAX(B10,C10)-MIN(B10,C10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f>K9-C9</f>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f>B9-1648</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f>MAX(B9,C9)-MIN(B9,C9)</f>
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f>B9-D9</f>
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A0B2B5-0405-4BF3-ADAC-2BE0E3053E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="9615" windowHeight="5145" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="Words" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="246">
   <si>
     <t>orientation</t>
   </si>
@@ -777,7 +783,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1167,14 +1173,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1717,7 +1723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2553,7 +2559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3468,7 +3474,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3476,7 +3482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3539,11 +3545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,18 +3568,18 @@
     <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J1" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J2">
         <f>F9</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>242</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>243</v>
       </c>
@@ -3645,7 +3651,7 @@
       </c>
       <c r="J5">
         <f>I5*J2</f>
-        <v>8.3333333333333321</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -3655,18 +3661,18 @@
       </c>
       <c r="M5">
         <f>K5*J2</f>
-        <v>1.6666666666666665</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="N5">
         <f>L5*J2</f>
-        <v>1.6666666666666665</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="O5">
         <f>MAX(K5, M5)-MIN(K5,M5)</f>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>288</v>
       </c>
@@ -3691,7 +3697,7 @@
       </c>
       <c r="J6">
         <f>I6*J2</f>
-        <v>8.3333333333333321</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="K6">
         <v>3028</v>
@@ -3701,18 +3707,18 @@
       </c>
       <c r="M6">
         <f>K6*J2</f>
-        <v>504.66666666666663</v>
+        <v>1009.3333333333333</v>
       </c>
       <c r="N6">
         <f>L6*J2</f>
-        <v>1.6666666666666665</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O10" si="1">MAX(K6, M6)-MIN(K6,M6)</f>
-        <v>2523.3333333333335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O6:O8" si="1">MAX(K6, M6)-MIN(K6,M6)</f>
+        <v>2018.6666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>288</v>
       </c>
@@ -3737,7 +3743,7 @@
       </c>
       <c r="J7">
         <f>I7*J2</f>
-        <v>8.3333333333333321</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="K7">
         <v>3028</v>
@@ -3747,18 +3753,21 @@
       </c>
       <c r="M7">
         <f>K7*J2</f>
-        <v>504.66666666666663</v>
+        <v>1009.3333333333333</v>
       </c>
       <c r="N7">
         <f>L7*J2</f>
-        <v>1.6666666666666665</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2523.3333333333335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2018.6666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
       <c r="B8">
         <v>3088</v>
       </c>
@@ -3776,15 +3785,15 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J10" si="2">I8*J3</f>
+        <f t="shared" ref="J8" si="2">I8*J3</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M10" si="3">K8*J3</f>
+        <f t="shared" ref="M8" si="3">K8*J3</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:N10" si="4">L8*J3</f>
+        <f t="shared" ref="N8" si="4">L8*J3</f>
         <v>0</v>
       </c>
       <c r="O8">
@@ -3792,7 +3801,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
       <c r="B9">
         <v>3088</v>
       </c>
@@ -3800,21 +3812,21 @@
         <v>1440</v>
       </c>
       <c r="D9">
-        <v>240</v>
+        <v>640</v>
       </c>
       <c r="E9">
         <v>480</v>
       </c>
       <c r="F9">
         <f>MIN(D9,E9)/MIN(B9,C9)</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I9">
         <v>50</v>
       </c>
       <c r="J9">
         <f>I9*J2</f>
-        <v>8.3333333333333321</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="K9">
         <v>2988</v>
@@ -3824,7 +3836,7 @@
       </c>
       <c r="M9">
         <f>K9*J2</f>
-        <v>498</v>
+        <v>996</v>
       </c>
       <c r="N9">
         <f>L9*J2</f>
@@ -3834,11 +3846,16 @@
         <f>MAX(B9,C9)-MIN(B9,C9)</f>
         <v>1648</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>244</v>
-      </c>
+      <c r="P9">
+        <f>B9-O9</f>
+        <v>1440</v>
+      </c>
+      <c r="Q9">
+        <f>O9-D9</f>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1000</v>
       </c>
@@ -3863,7 +3880,7 @@
       </c>
       <c r="J10">
         <f>I10*J2</f>
-        <v>8.3333333333333321</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="K10">
         <v>950</v>
@@ -3873,7 +3890,7 @@
       </c>
       <c r="M10">
         <f>K10*J2</f>
-        <v>158.33333333333331</v>
+        <v>316.66666666666663</v>
       </c>
       <c r="N10">
         <f>L10*J2</f>
@@ -3884,36 +3901,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M12">
         <f>K9-C9</f>
         <v>1548</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M13">
         <f>B9-1648</f>
         <v>1440</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M14">
         <f>MAX(B9,C9)-MIN(B9,C9)</f>
         <v>1648</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M15">
         <v>1286</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>B9-D9</f>
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>1168</v>
+      </c>
+      <c r="N17">
+        <f>K9</f>
+        <v>2988</v>
+      </c>
+      <c r="O17">
+        <f>J2*N17</f>
+        <v>996</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <f>K9-M17</f>
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <f>K9</f>
+        <v>2988</v>
+      </c>
+      <c r="O19">
+        <f>N19/2</f>
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <f>B9</f>
+        <v>3088</v>
+      </c>
+      <c r="O20">
+        <f>N20*J2</f>
+        <v>1029.3333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>640</v>
+      </c>
+      <c r="O21">
+        <f>N21*J2</f>
+        <v>213.33333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>480</v>
+      </c>
+      <c r="O22">
+        <f>N22*J2</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>3088</v>
+      </c>
+      <c r="M24">
+        <v>1440</v>
+      </c>
+      <c r="N24">
+        <v>640</v>
+      </c>
+      <c r="O24">
+        <v>480</v>
+      </c>
+      <c r="P24">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f>L24*J2</f>
+        <v>1029.3333333333333</v>
+      </c>
+      <c r="M25">
+        <f>M24*J2</f>
+        <v>480</v>
+      </c>
+      <c r="N25">
+        <f>N24*J2</f>
+        <v>213.33333333333331</v>
+      </c>
+      <c r="O25">
+        <f>O24*J2</f>
+        <v>160</v>
+      </c>
+      <c r="P25">
+        <f>P24*J2</f>
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A0B2B5-0405-4BF3-ADAC-2BE0E3053E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE5E7B5-343A-4F75-81F7-49FA283DA64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="251">
   <si>
     <t>orientation</t>
   </si>
@@ -738,9 +738,6 @@
     <t>Design-Height</t>
   </si>
   <si>
-    <t>Scale-Height</t>
-  </si>
-  <si>
     <t>Ratio-Original-To-New</t>
   </si>
   <si>
@@ -777,7 +774,25 @@
     <t>Landscape</t>
   </si>
   <si>
-    <t>New-X</t>
+    <t>New-Width</t>
+  </si>
+  <si>
+    <t>New-Height</t>
+  </si>
+  <si>
+    <t>Design-Min</t>
+  </si>
+  <si>
+    <t>New-Min</t>
+  </si>
+  <si>
+    <t>Design-X-%</t>
+  </si>
+  <si>
+    <t>Design-Y-%</t>
+  </si>
+  <si>
+    <t>Selected-Design-Width</t>
   </si>
 </sst>
 </file>
@@ -855,7 +870,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -865,6 +880,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3546,10 +3562,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3557,31 +3573,48 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J1" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J2">
-        <f>F9</f>
+        <f>B9</f>
+        <v>3088</v>
+      </c>
+      <c r="K2">
+        <f>C9</f>
+        <v>1440</v>
+      </c>
+      <c r="L2">
+        <f>H9</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>229</v>
@@ -3590,42 +3623,51 @@
         <v>231</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5">
         <v>288</v>
@@ -3640,39 +3682,51 @@
         <v>500</v>
       </c>
       <c r="F5">
-        <f>D5/B5</f>
+        <f>MIN(B5,C5)</f>
+        <v>288</v>
+      </c>
+      <c r="G5">
+        <f>MIN(D5,E5)</f>
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <f>G5/F5</f>
         <v>1.7361111111111112</v>
       </c>
-      <c r="H5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5">
-        <f>I5*J2</f>
-        <v>16.666666666666664</v>
+      <c r="J5" t="s">
+        <v>236</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <f>K5*L2</f>
+        <v>33.333333333333329</v>
       </c>
       <c r="M5">
-        <f>K5*J2</f>
-        <v>3.333333333333333</v>
+        <v>2988</v>
       </c>
       <c r="N5">
-        <f>L5*J2</f>
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <f>MAX(K5, M5)-MIN(K5,M5)</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <f>M5/J2</f>
+        <v>0.96761658031088082</v>
+      </c>
+      <c r="P5">
+        <f>N5/K2</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <f>M5*L2</f>
+        <v>996</v>
+      </c>
+      <c r="R5">
+        <f>N5*L2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>288</v>
       </c>
@@ -3686,39 +3740,19 @@
         <v>400</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F10" si="0">D6/B6</f>
+        <f t="shared" ref="F6:F10" si="0">MIN(B6,C6)</f>
+        <v>288</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G10" si="1">MIN(D6,E6)</f>
+        <v>200</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H10" si="2">G6/F6</f>
         <v>0.69444444444444442</v>
       </c>
-      <c r="H6" t="s">
-        <v>237</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6">
-        <f>I6*J2</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="K6">
-        <v>3028</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <f>K6*J2</f>
-        <v>1009.3333333333333</v>
-      </c>
-      <c r="N6">
-        <f>L6*J2</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ref="O6:O8" si="1">MAX(K6, M6)-MIN(K6,M6)</f>
-        <v>2018.6666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>288</v>
       </c>
@@ -3733,40 +3767,20 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-      <c r="J7">
-        <f>I7*J2</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="K7">
-        <v>3028</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <f>K7*J2</f>
-        <v>1009.3333333333333</v>
-      </c>
-      <c r="N7">
-        <f>L7*J2</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>2018.6666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8">
         <v>3088</v>
@@ -3782,28 +3796,20 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J8">
-        <f t="shared" ref="J8" si="2">I8*J3</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ref="M8" si="3">K8*J3</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ref="N8" si="4">L8*J3</f>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9">
         <v>3088</v>
@@ -3818,44 +3824,19 @@
         <v>480</v>
       </c>
       <c r="F9">
-        <f>MIN(D9,E9)/MIN(B9,C9)</f>
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I9">
-        <v>50</v>
-      </c>
-      <c r="J9">
-        <f>I9*J2</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="K9">
-        <v>2988</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f>K9*J2</f>
-        <v>996</v>
-      </c>
-      <c r="N9">
-        <f>L9*J2</f>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f>MAX(B9,C9)-MIN(B9,C9)</f>
-        <v>1648</v>
-      </c>
-      <c r="P9">
-        <f>B9-O9</f>
-        <v>1440</v>
-      </c>
-      <c r="Q9">
-        <f>O9-D9</f>
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1000</v>
       </c>
@@ -3870,162 +3851,18 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="H10" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10">
-        <v>50</v>
-      </c>
-      <c r="J10">
-        <f>I10*J2</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="K10">
-        <v>950</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>K10*J2</f>
-        <v>316.66666666666663</v>
-      </c>
-      <c r="N10">
-        <f>L10*J2</f>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f>MAX(B10,C10)-MIN(B10,C10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M12">
-        <f>K9-C9</f>
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M13">
-        <f>B9-1648</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M14">
-        <f>MAX(B9,C9)-MIN(B9,C9)</f>
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M15">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M16">
-        <f>B9-D9</f>
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="M17">
-        <v>1168</v>
-      </c>
-      <c r="N17">
-        <f>K9</f>
-        <v>2988</v>
-      </c>
-      <c r="O17">
-        <f>J2*N17</f>
-        <v>996</v>
-      </c>
-    </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="N18">
-        <f>K9-M17</f>
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="N19">
-        <f>K9</f>
-        <v>2988</v>
-      </c>
-      <c r="O19">
-        <f>N19/2</f>
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="N20">
-        <f>B9</f>
-        <v>3088</v>
-      </c>
-      <c r="O20">
-        <f>N20*J2</f>
-        <v>1029.3333333333333</v>
-      </c>
-    </row>
-    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="N21">
-        <v>640</v>
-      </c>
-      <c r="O21">
-        <f>N21*J2</f>
-        <v>213.33333333333331</v>
-      </c>
-    </row>
-    <row r="22" spans="12:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22">
-        <v>480</v>
-      </c>
-      <c r="O22">
-        <f>N22*J2</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L24">
-        <v>3088</v>
-      </c>
-      <c r="M24">
-        <v>1440</v>
-      </c>
-      <c r="N24">
-        <v>640</v>
-      </c>
-      <c r="O24">
-        <v>480</v>
-      </c>
-      <c r="P24">
-        <v>2988</v>
-      </c>
-    </row>
-    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L25">
-        <f>L24*J2</f>
-        <v>1029.3333333333333</v>
-      </c>
-      <c r="M25">
-        <f>M24*J2</f>
-        <v>480</v>
-      </c>
-      <c r="N25">
-        <f>N24*J2</f>
-        <v>213.33333333333331</v>
-      </c>
-      <c r="O25">
-        <f>O24*J2</f>
-        <v>160</v>
-      </c>
-      <c r="P25">
-        <f>P24*J2</f>
-        <v>996</v>
-      </c>
-    </row>
+    </row>
+    <row r="22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE5E7B5-343A-4F75-81F7-49FA283DA64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="14370" windowHeight="12045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="Words" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -798,7 +792,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1189,14 +1183,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1739,11 +1733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,15 +1842,15 @@
         <v>144</v>
       </c>
       <c r="L2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M16" si="2">B2*L2</f>
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N16" si="3">C2*L2</f>
-        <v>617.6</v>
+        <v>308.8</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1896,15 +1890,15 @@
         <v>144</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
         <f t="shared" si="2"/>
-        <v>617.6</v>
+        <v>308.8</v>
       </c>
       <c r="N3">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2575,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3490,7 +3484,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
+  <sortState ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3498,7 +3492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3561,10 +3555,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF10FA1-89D7-4252-B454-20020E60BDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="14370" windowHeight="12045" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="Words" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -792,7 +798,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1183,18 +1189,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,11 +1739,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,11 +1819,11 @@
         <v>3088</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D16" si="0">B2/C2</f>
+        <f t="shared" ref="D2:D18" si="0">B2/C2</f>
         <v>0.46632124352331605</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E16" si="1">MIN(C2, B2)</f>
+        <f t="shared" ref="E2:E18" si="1">MIN(C2, B2)</f>
         <v>1440</v>
       </c>
       <c r="F2">
@@ -1845,11 +1851,11 @@
         <v>0.1</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M16" si="2">B2*L2</f>
+        <f t="shared" ref="M2:M18" si="2">B2*L2</f>
         <v>144</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N16" si="3">C2*L2</f>
+        <f t="shared" ref="N2:N18" si="3">C2*L2</f>
         <v>308.8</v>
       </c>
     </row>
@@ -2076,7 +2082,7 @@
         <v>100</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G16" si="7">D7*F7</f>
+        <f t="shared" ref="G7:G18" si="7">D7*F7</f>
         <v>160</v>
       </c>
       <c r="H7">
@@ -2440,14 +2446,14 @@
         <v>0.1</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I16" si="8">(E14*H14) / 100</f>
+        <f t="shared" ref="I14:I18" si="8">(E14*H14) / 100</f>
         <v>0.36</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K16" si="9">F14*I14*J14</f>
+        <f t="shared" ref="K14:K18" si="9">F14*I14*J14</f>
         <v>36</v>
       </c>
       <c r="L14">
@@ -2558,7 +2564,103 @@
         <v>184.8</v>
       </c>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1170</v>
+      </c>
+      <c r="C17">
+        <v>2532</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.46208530805687204</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1170</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>46.208530805687204</v>
+      </c>
+      <c r="H17">
+        <v>0.1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>1.17</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="9"/>
+        <v>117</v>
+      </c>
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>253.20000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1848</v>
+      </c>
+      <c r="C18">
+        <v>2960</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.62432432432432428</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1848</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>62.432432432432428</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="9"/>
+        <v>184.8</v>
+      </c>
+      <c r="L18">
+        <v>0.1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>184.8</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>217</v>
       </c>
@@ -2569,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3484,7 +3586,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3492,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3555,7 +3657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF10FA1-89D7-4252-B454-20020E60BDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE9A43-DEA3-4340-89B0-4C851F5A7530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -3660,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3873,6 +3873,10 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="O7">
+        <f>O5*D9</f>
+        <v>619.27461139896377</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3902,6 +3906,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="O8">
+        <v>1168</v>
+      </c>
+      <c r="P8">
+        <f>M5-O8</f>
+        <v>1820</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3931,6 +3942,10 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
+      <c r="Q9" s="5">
+        <f>(Q5-(D9*O5))</f>
+        <v>376.72538860103623</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -3956,6 +3971,26 @@
       <c r="H10">
         <f t="shared" si="2"/>
         <v>0.8</v>
+      </c>
+      <c r="Q10" s="5">
+        <f>Q5-E9</f>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <f>J2-D9</f>
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>288</v>
       </c>
     </row>
     <row r="22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE9A43-DEA3-4340-89B0-4C851F5A7530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF613989-9A92-4480-B97C-BC6AA41A756E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -880,7 +880,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3661,7 +3661,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16:Q16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3847,6 +3847,7 @@
         <f t="shared" ref="H6:H10" si="2">G6/F6</f>
         <v>0.69444444444444442</v>
       </c>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -3877,6 +3878,7 @@
         <f>O5*D9</f>
         <v>619.27461139896377</v>
       </c>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3913,6 +3915,7 @@
         <f>M5-O8</f>
         <v>1820</v>
       </c>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3981,19 +3984,55 @@
       <c r="O11">
         <v>2348</v>
       </c>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O12">
         <f>J2-D9</f>
         <v>2448</v>
       </c>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O13">
         <v>288</v>
       </c>
-    </row>
-    <row r="22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D14" s="5">
+        <f>MIN(B9/D9, C9/E9)</f>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <f>M5-D9+K5</f>
+        <v>2448</v>
+      </c>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>-388</v>
+      </c>
+      <c r="M17">
+        <f>996-2988</f>
+        <v>-1992</v>
+      </c>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f>996-640</f>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF613989-9A92-4480-B97C-BC6AA41A756E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="Words" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -798,7 +792,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1189,14 +1183,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1739,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2671,7 +2665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3586,7 +3580,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
+  <sortState ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3594,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3657,11 +3651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4004,9 +3998,29 @@
         <f>MIN(B9/D9, C9/E9)</f>
         <v>3</v>
       </c>
+      <c r="E14">
+        <f>B9/D9</f>
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="F14">
+        <f>C9/E9</f>
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <f>B9/F14</f>
+        <v>1029.3333333333333</v>
+      </c>
+      <c r="H14">
+        <f>G14-D9</f>
+        <v>389.33333333333326</v>
+      </c>
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>M5/F14</f>
+        <v>996</v>
+      </c>
       <c r="O15">
         <f>M5-D9+K5</f>
         <v>2448</v>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="257">
   <si>
     <t>orientation</t>
   </si>
@@ -787,6 +787,24 @@
   </si>
   <si>
     <t>Selected-Design-Width</t>
+  </si>
+  <si>
+    <t>W/NW</t>
+  </si>
+  <si>
+    <t>H/NH</t>
+  </si>
+  <si>
+    <t>DesingX</t>
+  </si>
+  <si>
+    <t>DesignX-scaled</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3655,7 +3673,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E17" sqref="E17:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3988,6 +4006,21 @@
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" t="s">
+        <v>254</v>
+      </c>
       <c r="O13">
         <v>288</v>
       </c>
@@ -4017,6 +4050,14 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f>D9/B9</f>
+        <v>0.20725388601036268</v>
+      </c>
+      <c r="F15">
+        <f>E9/C9</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="G15">
         <f>M5/F14</f>
         <v>996</v>
@@ -4028,9 +4069,23 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <f>MIN(B9/D9, C9/E9)</f>
+        <v>3</v>
+      </c>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17">
+        <f>(B9/B16) - D9</f>
+        <v>389.33333333333326</v>
+      </c>
       <c r="L17">
         <v>-388</v>
       </c>
@@ -4040,13 +4095,20 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18">
+        <f>(C9/B16) - E9</f>
+        <v>0</v>
+      </c>
       <c r="M18">
         <f>996-640</f>
         <v>356</v>
       </c>
     </row>
-    <row r="22" spans="12:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="257">
   <si>
     <t>orientation</t>
   </si>
@@ -3673,7 +3673,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:F20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,17 +3682,16 @@
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3703,6 +3702,12 @@
         <v>250</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3716,6 +3721,14 @@
         <v>1440</v>
       </c>
       <c r="L2">
+        <f>D9</f>
+        <v>640</v>
+      </c>
+      <c r="M2">
+        <f>E9</f>
+        <v>480</v>
+      </c>
+      <c r="N2">
         <f>H9</f>
         <v>0.33333333333333331</v>
       </c>
@@ -3809,7 +3822,7 @@
       </c>
       <c r="L5">
         <f>K5*L2</f>
-        <v>33.333333333333329</v>
+        <v>64000</v>
       </c>
       <c r="M5">
         <v>2988</v>
@@ -3827,7 +3840,7 @@
       </c>
       <c r="Q5" s="5">
         <f>M5*L2</f>
-        <v>996</v>
+        <v>1912320</v>
       </c>
       <c r="R5">
         <f>N5*L2</f>
@@ -3959,7 +3972,7 @@
       </c>
       <c r="Q9" s="5">
         <f>(Q5-(D9*O5))</f>
-        <v>376.72538860103623</v>
+        <v>1911700.725388601</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -3989,7 +4002,7 @@
       </c>
       <c r="Q10" s="5">
         <f>Q5-E9</f>
-        <v>516</v>
+        <v>1911840</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4083,7 +4096,7 @@
         <v>255</v>
       </c>
       <c r="B17">
-        <f>(B9/B16) - D9</f>
+        <f>(J2/B16) - L2</f>
         <v>389.33333333333326</v>
       </c>
       <c r="L17">
@@ -4100,7 +4113,7 @@
         <v>256</v>
       </c>
       <c r="B18">
-        <f>(C9/B16) - E9</f>
+        <f>(K2/B16) - M2</f>
         <v>0</v>
       </c>
       <c r="M18">

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2D16D6-57AA-4D7F-B35B-10ED6C7BA192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="41472" windowHeight="16872" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="Words" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="259">
   <si>
     <t>orientation</t>
   </si>
@@ -805,12 +811,18 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Selected-Design-Height</t>
+  </si>
+  <si>
+    <t>Scale-Height</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1201,14 +1213,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1751,7 +1763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2683,7 +2695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3598,7 +3610,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3606,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3669,11 +3681,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,12 +3697,12 @@
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3699,7 +3711,7 @@
         <v>250</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>244</v>
@@ -3710,14 +3722,18 @@
       <c r="N1" s="4" t="s">
         <v>233</v>
       </c>
+      <c r="O1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J2">
-        <f>B9</f>
         <v>3088</v>
       </c>
       <c r="K2">
-        <f>C9</f>
         <v>1440</v>
       </c>
       <c r="L2">
@@ -3732,6 +3748,14 @@
         <f>H9</f>
         <v>0.33333333333333331</v>
       </c>
+      <c r="O2">
+        <f>J2*N2</f>
+        <v>1029.3333333333333</v>
+      </c>
+      <c r="P2">
+        <f>K2*N2</f>
+        <v>480</v>
+      </c>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3821,8 +3845,8 @@
         <v>100</v>
       </c>
       <c r="L5">
-        <f>K5*L2</f>
-        <v>64000</v>
+        <f>K5*N2</f>
+        <v>33.333333333333329</v>
       </c>
       <c r="M5">
         <v>2988</v>
@@ -3839,8 +3863,8 @@
         <v>0</v>
       </c>
       <c r="Q5" s="5">
-        <f>M5*L2</f>
-        <v>1912320</v>
+        <f>M5*N2</f>
+        <v>996</v>
       </c>
       <c r="R5">
         <f>N5*L2</f>
@@ -3972,7 +3996,7 @@
       </c>
       <c r="Q9" s="5">
         <f>(Q5-(D9*O5))</f>
-        <v>1911700.725388601</v>
+        <v>376.72538860103623</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4002,7 +4026,7 @@
       </c>
       <c r="Q10" s="5">
         <f>Q5-E9</f>
-        <v>1911840</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4099,13 +4123,6 @@
         <f>(J2/B16) - L2</f>
         <v>389.33333333333326</v>
       </c>
-      <c r="L17">
-        <v>-388</v>
-      </c>
-      <c r="M17">
-        <f>996-2988</f>
-        <v>-1992</v>
-      </c>
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -4116,12 +4133,53 @@
         <f>(K2/B16) - M2</f>
         <v>0</v>
       </c>
-      <c r="M18">
-        <f>996-640</f>
-        <v>356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>J2/L2</f>
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="K19">
+        <f>L2/J2</f>
+        <v>0.20725388601036268</v>
+      </c>
+      <c r="L19">
+        <f>J2*K19</f>
+        <v>640</v>
+      </c>
+      <c r="M19">
+        <f>M5*K19</f>
+        <v>619.27461139896366</v>
+      </c>
+      <c r="O19">
+        <f>O2-L2</f>
+        <v>389.33333333333326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>K2/M2</f>
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <f>M2/K2</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L20">
+        <f>K2*K20</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f>J20/J19</f>
+        <v>0.62176165803108807</v>
+      </c>
+      <c r="L21">
+        <f>J2*K21</f>
+        <v>1920</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2D16D6-57AA-4D7F-B35B-10ED6C7BA192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="41472" windowHeight="16872" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="41472" windowHeight="16872" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="Words" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -822,7 +816,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -894,7 +891,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -905,6 +902,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1213,34 +1214,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>46.632124352331608</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>46.632124352331608</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>46.153846153846153</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>46.153846153846153</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>46.208530805687204</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>216.41025641025641</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>13.493253373313344</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>0.46181299072091364</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>0.46205357142857145</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>228</v>
       </c>
@@ -1763,32 +1764,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>308.8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3088</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>240.8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>279.60000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>308.8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1920</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2960</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>184.8</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1170</v>
       </c>
@@ -2636,7 +2637,7 @@
         <v>253.20000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1848</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J31" t="s">
         <v>217</v>
       </c>
@@ -2695,22 +2696,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>195</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>208</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -3610,7 +3611,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
+  <sortState ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3618,17 +3619,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,32 +3682,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="J1" s="4" t="s">
         <v>250</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="J2">
         <v>3088</v>
       </c>
@@ -3744,11 +3745,11 @@
         <f>E9</f>
         <v>480</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="7">
         <f>H9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="6">
         <f>J2*N2</f>
         <v>1029.3333333333333</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>241</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>288</v>
       </c>
@@ -3898,7 +3899,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>288</v>
       </c>
@@ -3929,7 +3930,7 @@
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>243</v>
       </c>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>243</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>376.72538860103623</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1000</v>
       </c>
@@ -4029,20 +4030,20 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="O11">
         <v>2348</v>
       </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O12">
         <f>J2-D9</f>
         <v>2448</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>24</v>
       </c>
@@ -4063,7 +4064,7 @@
       </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D14" s="5">
         <f>MIN(B9/D9, C9/E9)</f>
         <v>3</v>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>D9/B9</f>
         <v>0.20725388601036268</v>
@@ -4105,7 +4106,7 @@
       </c>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4115,7 +4116,7 @@
       </c>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>255</v>
       </c>
@@ -4125,7 +4126,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J19">
         <f>J2/L2</f>
         <v>4.8250000000000002</v>
@@ -4151,12 +4152,12 @@
         <f>M5*K19</f>
         <v>619.27461139896366</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="6">
         <f>O2-L2</f>
         <v>389.33333333333326</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J20">
         <f>K2/M2</f>
         <v>3</v>
@@ -4170,7 +4171,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K21">
         <f>J20/J19</f>
         <v>0.62176165803108807</v>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B59A4A-39FE-4E77-93C2-93B251C6F277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="41472" windowHeight="16872" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="Words" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -816,9 +822,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -891,7 +898,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -906,6 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1214,34 +1222,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1302,7 +1310,7 @@
         <v>46.632124352331608</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1334,7 +1342,7 @@
         <v>46.632124352331608</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>46.153846153846153</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1406,7 @@
         <v>46.153846153846153</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>46.208530805687204</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1462,7 +1470,7 @@
         <v>216.41025641025641</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1514,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1540,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1575,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1593,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1645,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1671,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1711,7 @@
         <v>13.493253373313344</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>0.46181299072091364</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1739,7 +1747,7 @@
         <v>0.46205357142857145</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>228</v>
       </c>
@@ -1764,32 +1772,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1833,7 +1841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +1892,7 @@
         <v>308.8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3088</v>
       </c>
@@ -1932,7 +1940,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1983,7 +1991,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2034,7 +2042,7 @@
         <v>240.8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2085,7 +2093,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2136,7 +2144,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2187,7 +2195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2238,7 +2246,7 @@
         <v>279.60000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2289,7 +2297,7 @@
         <v>308.8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2340,7 +2348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -2391,7 +2399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -2442,7 +2450,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -2493,7 +2501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1920</v>
       </c>
@@ -2541,7 +2549,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2960</v>
       </c>
@@ -2589,7 +2597,7 @@
         <v>184.8</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1170</v>
       </c>
@@ -2637,7 +2645,7 @@
         <v>253.20000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1848</v>
       </c>
@@ -2685,7 +2693,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>217</v>
       </c>
@@ -2696,22 +2704,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2725,7 +2733,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2740,7 +2748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2755,7 +2763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2770,7 +2778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2785,7 +2793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -2800,7 +2808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -2830,7 +2838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2845,7 +2853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2860,7 +2868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2875,7 +2883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2890,7 +2898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2905,7 +2913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -2920,7 +2928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -2935,7 +2943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -2950,7 +2958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -2965,7 +2973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -2980,7 +2988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -2995,7 +3003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -3010,7 +3018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -3025,7 +3033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -3040,7 +3048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3055,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3070,7 +3078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3085,7 +3093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3100,7 +3108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3115,7 +3123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -3130,7 +3138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -3145,7 +3153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -3160,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -3175,7 +3183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3190,7 +3198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -3205,7 +3213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -3220,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -3235,7 +3243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3250,7 +3258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -3265,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3280,7 +3288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3295,7 +3303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3310,7 +3318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3325,7 +3333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -3340,7 +3348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -3355,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -3370,7 +3378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3385,7 +3393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -3400,7 +3408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -3415,7 +3423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -3430,7 +3438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -3445,7 +3453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -3460,7 +3468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>195</v>
       </c>
@@ -3475,7 +3483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -3490,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -3505,7 +3513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -3535,7 +3543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -3550,7 +3558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>208</v>
       </c>
@@ -3565,7 +3573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -3580,7 +3588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3595,7 +3603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -3611,7 +3619,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3619,17 +3627,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3682,32 +3690,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J1" s="4" t="s">
         <v>250</v>
       </c>
@@ -3730,7 +3739,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J2">
         <v>3088</v>
       </c>
@@ -3758,7 +3767,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>241</v>
       </c>
@@ -3811,7 +3820,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -3843,36 +3852,36 @@
         <v>236</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L5">
         <f>K5*N2</f>
-        <v>33.333333333333329</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>2988</v>
+        <v>2968</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
         <f>M5/J2</f>
-        <v>0.96761658031088082</v>
+        <v>0.96113989637305697</v>
       </c>
       <c r="P5">
         <f>N5/K2</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="8">
         <f>M5*N2</f>
-        <v>996</v>
+        <v>989.33333333333326</v>
       </c>
       <c r="R5">
         <f>N5*L2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>288</v>
       </c>
@@ -3899,7 +3908,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>288</v>
       </c>
@@ -3926,11 +3935,11 @@
       </c>
       <c r="O7">
         <f>O5*D9</f>
-        <v>619.27461139896377</v>
+        <v>615.1295336787565</v>
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>243</v>
       </c>
@@ -3963,11 +3972,11 @@
       </c>
       <c r="P8">
         <f>M5-O8</f>
-        <v>1820</v>
+        <v>1800</v>
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>243</v>
       </c>
@@ -3997,10 +4006,10 @@
       </c>
       <c r="Q9" s="5">
         <f>(Q5-(D9*O5))</f>
-        <v>376.72538860103623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+        <v>374.20379965457676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1000</v>
       </c>
@@ -4027,23 +4036,23 @@
       </c>
       <c r="Q10" s="5">
         <f>Q5-E9</f>
-        <v>516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+        <v>509.33333333333326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O11">
         <v>2348</v>
       </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O12">
         <f>J2-D9</f>
         <v>2448</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>24</v>
       </c>
@@ -4064,7 +4073,7 @@
       </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14" s="5">
         <f>MIN(B9/D9, C9/E9)</f>
         <v>3</v>
@@ -4087,7 +4096,7 @@
       </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15">
         <f>D9/B9</f>
         <v>0.20725388601036268</v>
@@ -4098,7 +4107,7 @@
       </c>
       <c r="G15">
         <f>M5/F14</f>
-        <v>996</v>
+        <v>989.33333333333337</v>
       </c>
       <c r="O15">
         <f>M5-D9+K5</f>
@@ -4106,7 +4115,7 @@
       </c>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4116,7 +4125,7 @@
       </c>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>255</v>
       </c>
@@ -4126,7 +4135,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -4135,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J19">
         <f>J2/L2</f>
         <v>4.8250000000000002</v>
@@ -4150,14 +4159,14 @@
       </c>
       <c r="M19">
         <f>M5*K19</f>
-        <v>619.27461139896366</v>
+        <v>615.12953367875639</v>
       </c>
       <c r="O19" s="6">
         <f>O2-L2</f>
         <v>389.33333333333326</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J20">
         <f>K2/M2</f>
         <v>3</v>
@@ -4171,7 +4180,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K21">
         <f>J20/J19</f>
         <v>0.62176165803108807</v>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B59A4A-39FE-4E77-93C2-93B251C6F277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1686E8-5249-4BC4-A24C-8EE30EECBFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="259">
   <si>
     <t>orientation</t>
   </si>
@@ -823,9 +823,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -898,7 +899,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -910,10 +911,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3693,8 +3696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3747,24 +3750,22 @@
         <v>1440</v>
       </c>
       <c r="L2">
-        <f>D9</f>
-        <v>640</v>
+        <v>1920</v>
       </c>
       <c r="M2">
-        <f>E9</f>
-        <v>480</v>
-      </c>
-      <c r="N2" s="7">
-        <f>H9</f>
-        <v>0.33333333333333331</v>
+        <v>1080</v>
+      </c>
+      <c r="N2" s="10">
+        <f>H11</f>
+        <v>0.75</v>
       </c>
       <c r="O2" s="6">
         <f>J2*N2</f>
-        <v>1029.3333333333333</v>
+        <v>2316</v>
       </c>
       <c r="P2">
         <f>K2*N2</f>
-        <v>480</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3844,7 +3845,7 @@
         <f>MIN(D5,E5)</f>
         <v>500</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="8">
         <f>G5/F5</f>
         <v>1.7361111111111112</v>
       </c>
@@ -3856,7 +3857,7 @@
       </c>
       <c r="L5">
         <f>K5*N2</f>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M5">
         <v>2968</v>
@@ -3872,9 +3873,9 @@
         <f>N5/K2</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <f>M5*N2</f>
-        <v>989.33333333333326</v>
+        <v>2226</v>
       </c>
       <c r="R5">
         <f>N5*L2</f>
@@ -3899,10 +3900,10 @@
         <v>288</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G10" si="1">MIN(D6,E6)</f>
+        <f t="shared" ref="G6:G11" si="1">MIN(D6,E6)</f>
         <v>200</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="8">
         <f t="shared" ref="H6:H10" si="2">G6/F6</f>
         <v>0.69444444444444442</v>
       </c>
@@ -3929,7 +3930,7 @@
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -3963,7 +3964,7 @@
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4000,13 +4001,13 @@
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="8">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q9" s="5">
         <f>(Q5-(D9*O5))</f>
-        <v>374.20379965457676</v>
+        <v>1610.8704663212434</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4023,23 +4024,50 @@
         <v>800</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>MIN(B10,C10)</f>
         <v>1000</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
+      <c r="H10" s="8">
+        <f>G10/F10</f>
         <v>0.8</v>
       </c>
       <c r="Q10" s="5">
         <f>Q5-E9</f>
-        <v>509.33333333333326</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11">
+        <v>3088</v>
+      </c>
+      <c r="C11">
+        <v>1440</v>
+      </c>
+      <c r="D11">
+        <v>1920</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11">
+        <f>MIN(B11,C11)</f>
+        <v>1440</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="H11" s="8">
+        <f>G11/F11</f>
+        <v>0.75</v>
+      </c>
       <c r="O11">
         <v>2348</v>
       </c>
@@ -4131,7 +4159,7 @@
       </c>
       <c r="B17">
         <f>(J2/B16) - L2</f>
-        <v>389.33333333333326</v>
+        <v>-890.66666666666674</v>
       </c>
       <c r="Q17" s="5"/>
     </row>
@@ -4141,53 +4169,53 @@
       </c>
       <c r="B18">
         <f>(K2/B16) - M2</f>
-        <v>0</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J19">
         <f>J2/L2</f>
-        <v>4.8250000000000002</v>
+        <v>1.6083333333333334</v>
       </c>
       <c r="K19">
         <f>L2/J2</f>
-        <v>0.20725388601036268</v>
+        <v>0.62176165803108807</v>
       </c>
       <c r="L19">
         <f>J2*K19</f>
-        <v>640</v>
+        <v>1920</v>
       </c>
       <c r="M19">
         <f>M5*K19</f>
-        <v>615.12953367875639</v>
-      </c>
-      <c r="O19" s="6">
+        <v>1845.3886010362694</v>
+      </c>
+      <c r="O19" s="9">
         <f>O2-L2</f>
-        <v>389.33333333333326</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J20">
         <f>K2/M2</f>
-        <v>3</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K20">
         <f>M2/K2</f>
-        <v>0.33333333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
         <f>K2*K20</f>
-        <v>480</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K21">
         <f>J20/J19</f>
-        <v>0.62176165803108807</v>
+        <v>0.82901554404145072</v>
       </c>
       <c r="L21">
         <f>J2*K21</f>
-        <v>1920</v>
+        <v>2560</v>
       </c>
     </row>
   </sheetData>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1686E8-5249-4BC4-A24C-8EE30EECBFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021E68FE-1DC9-4AB5-BDEB-81E232C08A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="259">
   <si>
     <t>orientation</t>
   </si>
@@ -826,7 +826,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -912,9 +912,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
@@ -1779,7 +1779,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,15 +1932,15 @@
         <v>144</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
         <f t="shared" si="2"/>
-        <v>308.8</v>
+        <v>617.6</v>
       </c>
       <c r="N3">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3694,10 +3694,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,11 +3711,12 @@
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3744,28 +3745,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J2">
+        <v>1440</v>
+      </c>
+      <c r="K2">
         <v>3088</v>
       </c>
-      <c r="K2">
-        <v>1440</v>
-      </c>
       <c r="L2">
-        <v>1920</v>
+        <v>630</v>
       </c>
       <c r="M2">
-        <v>1080</v>
+        <v>900</v>
       </c>
       <c r="N2" s="10">
         <f>H11</f>
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="O2" s="6">
         <f>J2*N2</f>
-        <v>2316</v>
+        <v>630</v>
       </c>
       <c r="P2">
         <f>K2*N2</f>
-        <v>1080</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3857,7 +3858,7 @@
       </c>
       <c r="L5">
         <f>K5*N2</f>
-        <v>90</v>
+        <v>52.5</v>
       </c>
       <c r="M5">
         <v>2968</v>
@@ -3867,7 +3868,7 @@
       </c>
       <c r="O5">
         <f>M5/J2</f>
-        <v>0.96113989637305697</v>
+        <v>2.0611111111111109</v>
       </c>
       <c r="P5">
         <f>N5/K2</f>
@@ -3875,7 +3876,7 @@
       </c>
       <c r="Q5" s="7">
         <f>M5*N2</f>
-        <v>2226</v>
+        <v>1298.5</v>
       </c>
       <c r="R5">
         <f>N5*L2</f>
@@ -3896,7 +3897,7 @@
         <v>400</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F10" si="0">MIN(B6,C6)</f>
+        <f t="shared" ref="F6:F9" si="0">MIN(B6,C6)</f>
         <v>288</v>
       </c>
       <c r="G6">
@@ -3904,10 +3905,37 @@
         <v>200</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H10" si="2">G6/F6</f>
+        <f t="shared" ref="H6:H9" si="2">G6/F6</f>
         <v>0.69444444444444442</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="J6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6">
+        <v>120</v>
+      </c>
+      <c r="L6">
+        <f>K6*N2</f>
+        <v>52.5</v>
+      </c>
+      <c r="M6">
+        <v>1320</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>M6/J2</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P6">
+        <f>N6/K2</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>M6*N2</f>
+        <v>577.5</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -3936,7 +3964,7 @@
       </c>
       <c r="O7">
         <f>O5*D9</f>
-        <v>615.1295336787565</v>
+        <v>1319.1111111111109</v>
       </c>
       <c r="Q7" s="5"/>
     </row>
@@ -4007,7 +4035,7 @@
       </c>
       <c r="Q9" s="5">
         <f>(Q5-(D9*O5))</f>
-        <v>1610.8704663212434</v>
+        <v>-20.611111111110858</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4037,24 +4065,24 @@
       </c>
       <c r="Q10" s="5">
         <f>Q5-E9</f>
-        <v>1746</v>
+        <v>818.5</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11">
+        <v>1440</v>
+      </c>
+      <c r="C11">
         <v>3088</v>
       </c>
-      <c r="C11">
-        <v>1440</v>
-      </c>
       <c r="D11">
-        <v>1920</v>
+        <v>630</v>
       </c>
       <c r="E11">
-        <v>1080</v>
+        <v>900</v>
       </c>
       <c r="F11">
         <f>MIN(B11,C11)</f>
@@ -4062,11 +4090,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>1080</v>
+        <v>630</v>
       </c>
       <c r="H11" s="8">
         <f>G11/F11</f>
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="O11">
         <v>2348</v>
@@ -4076,7 +4104,7 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O12">
         <f>J2-D9</f>
-        <v>2448</v>
+        <v>800</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
@@ -4159,7 +4187,7 @@
       </c>
       <c r="B17">
         <f>(J2/B16) - L2</f>
-        <v>-890.66666666666674</v>
+        <v>-150</v>
       </c>
       <c r="Q17" s="5"/>
     </row>
@@ -4169,53 +4197,69 @@
       </c>
       <c r="B18">
         <f>(K2/B16) - M2</f>
-        <v>-600</v>
+        <v>129.33333333333326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J19">
         <f>J2/L2</f>
-        <v>1.6083333333333334</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="K19">
         <f>L2/J2</f>
-        <v>0.62176165803108807</v>
+        <v>0.4375</v>
       </c>
       <c r="L19">
         <f>J2*K19</f>
-        <v>1920</v>
+        <v>630</v>
       </c>
       <c r="M19">
         <f>M5*K19</f>
-        <v>1845.3886010362694</v>
+        <v>1298.5</v>
       </c>
       <c r="O19" s="9">
         <f>O2-L2</f>
-        <v>396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J20">
         <f>K2/M2</f>
-        <v>1.3333333333333333</v>
+        <v>3.431111111111111</v>
       </c>
       <c r="K20">
         <f>M2/K2</f>
-        <v>0.75</v>
+        <v>0.29145077720207252</v>
       </c>
       <c r="L20">
         <f>K2*K20</f>
-        <v>1080</v>
+        <v>899.99999999999989</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K21">
         <f>J20/J19</f>
-        <v>0.82901554404145072</v>
+        <v>1.5011111111111111</v>
       </c>
       <c r="L21">
         <f>J2*K21</f>
-        <v>2560</v>
+        <v>2161.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f>625*O5</f>
+        <v>1288.1944444444443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f>1320/1440</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K26">
+        <f>J26*625</f>
+        <v>572.91666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021E68FE-1DC9-4AB5-BDEB-81E232C08A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29016" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,9 @@
     <sheet name="aa" sheetId="3" r:id="rId3"/>
     <sheet name="Words" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="277">
   <si>
     <t>orientation</t>
   </si>
@@ -817,16 +812,71 @@
   </si>
   <si>
     <t>Scale-Height</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>design-height</t>
+  </si>
+  <si>
+    <t>design-width</t>
+  </si>
+  <si>
+    <t>actual-width</t>
+  </si>
+  <si>
+    <t>actual-height</t>
+  </si>
+  <si>
+    <t>ratio-width</t>
+  </si>
+  <si>
+    <t>ratio-height</t>
+  </si>
+  <si>
+    <t>value-1</t>
+  </si>
+  <si>
+    <t>value-2</t>
+  </si>
+  <si>
+    <t>close-design-x</t>
+  </si>
+  <si>
+    <t>close-design-y</t>
+  </si>
+  <si>
+    <t>design-size</t>
+  </si>
+  <si>
+    <t>width-x</t>
+  </si>
+  <si>
+    <t>height-y</t>
+  </si>
+  <si>
+    <t>actual-size</t>
+  </si>
+  <si>
+    <t>close-size</t>
+  </si>
+  <si>
+    <t>close-design-location</t>
+  </si>
+  <si>
+    <t>close-actual-size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -899,7 +949,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -916,6 +966,10 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1225,31 +1279,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1775,29 +1829,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2707,22 +2761,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2736,7 +2790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2751,7 +2805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2766,7 +2820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2781,7 +2835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2796,7 +2850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -2811,7 +2865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -2826,7 +2880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -2841,7 +2895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2856,7 +2910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2871,7 +2925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2886,7 +2940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2901,7 +2955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2916,7 +2970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -2931,7 +2985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -2946,7 +3000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -2961,7 +3015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -2976,7 +3030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -2991,7 +3045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -3006,7 +3060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -3021,7 +3075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -3036,7 +3090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -3051,7 +3105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3066,7 +3120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3081,7 +3135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3096,7 +3150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3111,7 +3165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3126,7 +3180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -3141,7 +3195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -3156,7 +3210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -3171,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -3186,7 +3240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3201,7 +3255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -3216,7 +3270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -3231,7 +3285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -3246,7 +3300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3261,7 +3315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -3276,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3291,7 +3345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3306,7 +3360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3321,7 +3375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3336,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -3351,7 +3405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -3366,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -3381,7 +3435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3396,7 +3450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -3411,7 +3465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -3426,7 +3480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -3441,7 +3495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -3456,7 +3510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -3471,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>195</v>
       </c>
@@ -3486,7 +3540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -3501,7 +3555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -3516,7 +3570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -3531,7 +3585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -3546,7 +3600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -3561,7 +3615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>208</v>
       </c>
@@ -3576,7 +3630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -3591,7 +3645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3606,7 +3660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -3622,7 +3676,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
+  <sortState ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3630,17 +3684,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3693,31 +3747,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="A24:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4246,13 +4300,30 @@
         <v>2161.6</v>
       </c>
     </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>259</v>
+      </c>
+    </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25">
+        <v>1440</v>
+      </c>
       <c r="J25">
         <f>625*O5</f>
         <v>1288.1944444444443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26">
+        <v>3088</v>
+      </c>
       <c r="J26">
         <f>1320/1440</f>
         <v>0.91666666666666663</v>
@@ -4260,10 +4331,233 @@
       <c r="K26">
         <f>J26*625</f>
         <v>572.91666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2">
+        <v>1440</v>
+      </c>
+      <c r="C2">
+        <v>1440</v>
+      </c>
+      <c r="G2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2">
+        <v>1440</v>
+      </c>
+      <c r="I2">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3">
+        <v>3088</v>
+      </c>
+      <c r="C3">
+        <v>3088</v>
+      </c>
+      <c r="G3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3">
+        <v>640</v>
+      </c>
+      <c r="I3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4">
+        <v>640</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>H2/H3</f>
+        <v>2.25</v>
+      </c>
+      <c r="I4">
+        <f>I2/I3</f>
+        <v>6.4333333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5">
+        <v>480</v>
+      </c>
+      <c r="C5">
+        <v>4000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H5">
+        <v>120</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="11">
+        <f>B2/B4</f>
+        <v>2.25</v>
+      </c>
+      <c r="C6" s="11">
+        <f>C2/C4</f>
+        <v>0.72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6">
+        <v>1320</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>H6/H4</f>
+        <v>586.66666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="11">
+        <f>B3/B5</f>
+        <v>6.4333333333333336</v>
+      </c>
+      <c r="C7" s="11">
+        <f>C3/C5</f>
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7">
+        <f>H5/H4</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="I7">
+        <f>I5/I4</f>
+        <v>18.652849740932641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>120</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
+        <v>120</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8B35D7-EBE5-4B5D-82BB-0921AFA0145B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29016" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="282">
   <si>
     <t>orientation</t>
   </si>
@@ -847,36 +853,51 @@
     <t>close-design-y</t>
   </si>
   <si>
-    <t>design-size</t>
-  </si>
-  <si>
     <t>width-x</t>
   </si>
   <si>
     <t>height-y</t>
   </si>
   <si>
-    <t>actual-size</t>
-  </si>
-  <si>
     <t>close-size</t>
   </si>
   <si>
-    <t>close-design-location</t>
-  </si>
-  <si>
-    <t>close-actual-size</t>
+    <t>close-width</t>
+  </si>
+  <si>
+    <t>close-height</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>close-location</t>
+  </si>
+  <si>
+    <t>close-size-%</t>
+  </si>
+  <si>
+    <t>close-location-%</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -967,7 +988,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1279,31 +1300,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1829,29 +1850,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2761,22 +2782,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2790,7 +2811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2805,7 +2826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2820,7 +2841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2835,7 +2856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2850,7 +2871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -2865,7 +2886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -2880,7 +2901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -2895,7 +2916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2910,7 +2931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2925,7 +2946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2940,7 +2961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2955,7 +2976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2970,7 +2991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -2985,7 +3006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -3000,7 +3021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -3015,7 +3036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -3030,7 +3051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -3045,7 +3066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -3060,7 +3081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -3075,7 +3096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -3090,7 +3111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -3105,7 +3126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3120,7 +3141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3135,7 +3156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3150,7 +3171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3165,7 +3186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3180,7 +3201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -3195,7 +3216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -3210,7 +3231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -3225,7 +3246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -3240,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3255,7 +3276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -3270,7 +3291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -3285,7 +3306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -3300,7 +3321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3315,7 +3336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -3330,7 +3351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3345,7 +3366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3360,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3375,7 +3396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3390,7 +3411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -3405,7 +3426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -3420,7 +3441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -3435,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3450,7 +3471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -3465,7 +3486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -3480,7 +3501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -3495,7 +3516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -3510,7 +3531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -3525,7 +3546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>195</v>
       </c>
@@ -3540,7 +3561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -3555,7 +3576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -3570,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -3585,7 +3606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -3600,7 +3621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -3615,7 +3636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>208</v>
       </c>
@@ -3630,7 +3651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -3645,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3660,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -3676,7 +3697,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3684,17 +3705,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3747,34 +3768,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="A24:C29"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="J1" s="4" t="s">
         <v>250</v>
       </c>
@@ -3797,7 +3818,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="J2">
         <v>1440</v>
       </c>
@@ -3823,7 +3844,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>241</v>
       </c>
@@ -3876,7 +3897,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -3937,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>288</v>
       </c>
@@ -3991,7 +4012,7 @@
         <v>577.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>288</v>
       </c>
@@ -4022,7 +4043,7 @@
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>243</v>
       </c>
@@ -4059,7 +4080,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>243</v>
       </c>
@@ -4092,7 +4113,7 @@
         <v>-20.611111111110858</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1000</v>
       </c>
@@ -4122,7 +4143,7 @@
         <v>818.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -4155,14 +4176,14 @@
       </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="O12">
         <f>J2-D9</f>
         <v>800</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>24</v>
       </c>
@@ -4183,7 +4204,7 @@
       </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="D14" s="5">
         <f>MIN(B9/D9, C9/E9)</f>
         <v>3</v>
@@ -4206,7 +4227,7 @@
       </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E15">
         <f>D9/B9</f>
         <v>0.20725388601036268</v>
@@ -4225,7 +4246,7 @@
       </c>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4235,7 +4256,7 @@
       </c>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>255</v>
       </c>
@@ -4245,7 +4266,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -4254,7 +4275,7 @@
         <v>129.33333333333326</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
       <c r="J19">
         <f>J2/L2</f>
         <v>2.2857142857142856</v>
@@ -4276,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
       <c r="J20">
         <f>K2/M2</f>
         <v>3.431111111111111</v>
@@ -4290,7 +4311,7 @@
         <v>899.99999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
       <c r="K21">
         <f>J20/J19</f>
         <v>1.5011111111111111</v>
@@ -4300,12 +4321,12 @@
         <v>2161.6</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>261</v>
       </c>
@@ -4317,7 +4338,7 @@
         <v>1288.1944444444443</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>260</v>
       </c>
@@ -4333,7 +4354,7 @@
         <v>572.91666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>262</v>
       </c>
@@ -4341,7 +4362,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>263</v>
       </c>
@@ -4349,7 +4370,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>264</v>
       </c>
@@ -4361,23 +4382,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="O4" sqref="O4:U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>259</v>
       </c>
@@ -4388,16 +4414,19 @@
         <v>267</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>261</v>
       </c>
@@ -4408,16 +4437,19 @@
         <v>1440</v>
       </c>
       <c r="G2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2">
+        <v>276</v>
+      </c>
+      <c r="H2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2">
         <v>1440</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3088</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>260</v>
       </c>
@@ -4428,16 +4460,19 @@
         <v>3088</v>
       </c>
       <c r="G3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H3">
-        <v>640</v>
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
+        <v>272</v>
       </c>
       <c r="I3">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="J3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>262</v>
       </c>
@@ -4448,18 +4483,19 @@
         <v>2000</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <f>H2/H3</f>
-        <v>2.25</v>
+        <v>276</v>
+      </c>
+      <c r="H4" t="s">
+        <v>278</v>
       </c>
       <c r="I4">
-        <f>I2/I3</f>
-        <v>6.4333333333333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1270</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -4470,90 +4506,125 @@
         <v>4000</v>
       </c>
       <c r="G5" t="s">
-        <v>274</v>
-      </c>
-      <c r="H5">
-        <v>120</v>
+        <v>276</v>
+      </c>
+      <c r="H5" t="s">
+        <v>279</v>
       </c>
       <c r="I5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+        <f>I3/I2</f>
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="J5">
+        <f>J3/J2</f>
+        <v>5.5051813471502592E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I6">
+        <f>I4/I2</f>
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="J6">
+        <f>J4/J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B7" s="11">
         <f>B2/B4</f>
         <v>2.25</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="11">
         <f>C2/C4</f>
         <v>0.72</v>
       </c>
-      <c r="G6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6">
-        <v>1320</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>H6/H4</f>
-        <v>586.66666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7">
+        <v>3088</v>
+      </c>
+      <c r="J7">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B8" s="11">
         <f>B3/B5</f>
         <v>6.4333333333333336</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C8" s="11">
         <f>C3/C5</f>
         <v>0.77200000000000002</v>
       </c>
-      <c r="G7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7">
-        <f>H5/H4</f>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="I7">
-        <f>I5/I4</f>
-        <v>18.652849740932641</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="11">
-        <v>120</v>
-      </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8">
+        <f>I7*I5</f>
+        <v>364.55555555555554</v>
+      </c>
+      <c r="J8">
+        <f>J7*I5</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>273</v>
+      </c>
       <c r="B9" s="11">
         <v>120</v>
       </c>
       <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="11">
+        <v>120</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>268</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1320</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>269</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>0</v>
       </c>
     </row>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8B35D7-EBE5-4B5D-82BB-0921AFA0145B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29016" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="275">
   <si>
     <t>orientation</t>
   </si>
@@ -838,21 +832,6 @@
     <t>ratio-width</t>
   </si>
   <si>
-    <t>ratio-height</t>
-  </si>
-  <si>
-    <t>value-1</t>
-  </si>
-  <si>
-    <t>value-2</t>
-  </si>
-  <si>
-    <t>close-design-x</t>
-  </si>
-  <si>
-    <t>close-design-y</t>
-  </si>
-  <si>
     <t>width-x</t>
   </si>
   <si>
@@ -862,12 +841,6 @@
     <t>close-size</t>
   </si>
   <si>
-    <t>close-width</t>
-  </si>
-  <si>
-    <t>close-height</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -880,24 +853,23 @@
     <t>close-location</t>
   </si>
   <si>
-    <t>close-size-%</t>
-  </si>
-  <si>
     <t>close-location-%</t>
   </si>
   <si>
     <t>size</t>
+  </si>
+  <si>
+    <t>close-size-ratio%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -970,7 +942,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -988,7 +960,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1300,31 +1271,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1850,29 +1821,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2782,22 +2753,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2811,7 +2782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2826,7 +2797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2841,7 +2812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2856,7 +2827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2871,7 +2842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -2886,7 +2857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -2901,7 +2872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -2916,7 +2887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2931,7 +2902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2946,7 +2917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2961,7 +2932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2976,7 +2947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2991,7 +2962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -3006,7 +2977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -3021,7 +2992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -3036,7 +3007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -3051,7 +3022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -3066,7 +3037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -3081,7 +3052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -3096,7 +3067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -3111,7 +3082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -3126,7 +3097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3141,7 +3112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3156,7 +3127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3171,7 +3142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3186,7 +3157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3201,7 +3172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -3216,7 +3187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -3231,7 +3202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -3246,7 +3217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -3261,7 +3232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3276,7 +3247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -3291,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -3306,7 +3277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -3321,7 +3292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3336,7 +3307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -3351,7 +3322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3366,7 +3337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3381,7 +3352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3396,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3411,7 +3382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -3426,7 +3397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -3441,7 +3412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -3456,7 +3427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3471,7 +3442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -3486,7 +3457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -3501,7 +3472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -3516,7 +3487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -3531,7 +3502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -3546,7 +3517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>195</v>
       </c>
@@ -3561,7 +3532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -3576,7 +3547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -3591,7 +3562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -3606,7 +3577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -3621,7 +3592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -3636,7 +3607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>208</v>
       </c>
@@ -3651,7 +3622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -3666,7 +3637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3681,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -3697,7 +3668,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
+  <sortState ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3705,17 +3676,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3768,34 +3739,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J1" s="4" t="s">
         <v>250</v>
       </c>
@@ -3818,7 +3789,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J2">
         <v>1440</v>
       </c>
@@ -3844,7 +3815,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>241</v>
       </c>
@@ -3897,7 +3868,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -3958,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>288</v>
       </c>
@@ -4012,7 +3983,7 @@
         <v>577.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>288</v>
       </c>
@@ -4043,7 +4014,7 @@
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>243</v>
       </c>
@@ -4080,7 +4051,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>243</v>
       </c>
@@ -4113,7 +4084,7 @@
         <v>-20.611111111110858</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1000</v>
       </c>
@@ -4143,7 +4114,7 @@
         <v>818.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -4176,14 +4147,14 @@
       </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O12">
         <f>J2-D9</f>
         <v>800</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>24</v>
       </c>
@@ -4204,7 +4175,7 @@
       </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14" s="5">
         <f>MIN(B9/D9, C9/E9)</f>
         <v>3</v>
@@ -4227,7 +4198,7 @@
       </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15">
         <f>D9/B9</f>
         <v>0.20725388601036268</v>
@@ -4246,7 +4217,7 @@
       </c>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4256,7 +4227,7 @@
       </c>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>255</v>
       </c>
@@ -4266,7 +4237,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -4275,7 +4246,7 @@
         <v>129.33333333333326</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J19">
         <f>J2/L2</f>
         <v>2.2857142857142856</v>
@@ -4297,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J20">
         <f>K2/M2</f>
         <v>3.431111111111111</v>
@@ -4311,7 +4282,7 @@
         <v>899.99999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K21">
         <f>J20/J19</f>
         <v>1.5011111111111111</v>
@@ -4321,12 +4292,12 @@
         <v>2161.6</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>261</v>
       </c>
@@ -4338,7 +4309,7 @@
         <v>1288.1944444444443</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>260</v>
       </c>
@@ -4354,7 +4325,7 @@
         <v>572.91666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>262</v>
       </c>
@@ -4362,7 +4333,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>263</v>
       </c>
@@ -4370,7 +4341,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>264</v>
       </c>
@@ -4382,250 +4353,172 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:U23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2">
-        <v>1440</v>
+        <v>269</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
       </c>
       <c r="C2">
         <v>1440</v>
       </c>
-      <c r="G2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H2" t="s">
-        <v>281</v>
-      </c>
-      <c r="I2">
+      <c r="D2">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3">
+        <v>170</v>
+      </c>
+      <c r="D3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4">
+        <v>1270</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>C2-C4</f>
+        <v>170</v>
+      </c>
+      <c r="H4" s="8">
+        <f>G4/C2</f>
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="I4">
+        <f>H4*100</f>
+        <v>11.805555555555555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5">
+        <f>C3/MIN(C2,D2)</f>
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="D5">
+        <f>D3/MIN(C2,D2)</f>
+        <v>0.11805555555555555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6">
+        <f>C4/C2</f>
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="D6">
+        <f>D4/D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7">
+        <v>3088</v>
+      </c>
+      <c r="D7">
         <v>1440</v>
       </c>
-      <c r="J2">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3">
-        <v>3088</v>
-      </c>
-      <c r="C3">
-        <v>3088</v>
-      </c>
-      <c r="G3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8">
+        <f>C5*MIN(C7,D7)</f>
         <v>170</v>
       </c>
-      <c r="J3">
+      <c r="D8">
+        <f>D5*MIN(C7,D7)</f>
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4">
-        <v>640</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" t="s">
-        <v>278</v>
-      </c>
-      <c r="I4">
-        <v>1270</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5">
-        <v>480</v>
-      </c>
-      <c r="C5">
-        <v>4000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H5" t="s">
-        <v>279</v>
-      </c>
-      <c r="I5">
-        <f>I3/I2</f>
-        <v>0.11805555555555555</v>
-      </c>
-      <c r="J5">
-        <f>J3/J2</f>
-        <v>5.5051813471502592E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>276</v>
-      </c>
-      <c r="H6" t="s">
-        <v>280</v>
-      </c>
-      <c r="I6">
-        <f>I4/I2</f>
-        <v>0.88194444444444442</v>
-      </c>
-      <c r="J6">
-        <f>J4/J2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" s="11">
-        <f>B2/B4</f>
-        <v>2.25</v>
-      </c>
-      <c r="C7" s="11">
-        <f>C2/C4</f>
-        <v>0.72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" t="s">
-        <v>281</v>
-      </c>
-      <c r="I7">
-        <v>3088</v>
-      </c>
-      <c r="J7">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="11">
-        <f>B3/B5</f>
-        <v>6.4333333333333336</v>
-      </c>
-      <c r="C8" s="11">
-        <f>C3/C5</f>
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="G8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H8" t="s">
-        <v>272</v>
-      </c>
-      <c r="I8">
-        <f>I7*I5</f>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9">
+        <f>C5*C7</f>
         <v>364.55555555555554</v>
       </c>
-      <c r="J8">
-        <f>J7*I5</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="11">
-        <v>120</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="G9" t="s">
-        <v>277</v>
-      </c>
-      <c r="H9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="11">
-        <v>120</v>
-      </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>2918</v>
       </c>
     </row>
   </sheetData>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F0FFD-0CB8-4E14-AF53-09612E345460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29016" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="279">
   <si>
     <t>orientation</t>
   </si>
@@ -841,9 +847,6 @@
     <t>close-size</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>design</t>
   </si>
   <si>
@@ -860,18 +863,33 @@
   </si>
   <si>
     <t>close-size-ratio%</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>portrait</t>
+  </si>
+  <si>
+    <t>close-error</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,6 +927,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -937,12 +963,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -960,11 +987,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,31 +1298,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1821,29 +1848,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2753,22 +2780,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2782,7 +2809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2797,7 +2824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2812,7 +2839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2827,7 +2854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2842,7 +2869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -2857,7 +2884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -2872,7 +2899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -2887,7 +2914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2902,7 +2929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2917,7 +2944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2932,7 +2959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2947,7 +2974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2962,7 +2989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -2977,7 +3004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -2992,7 +3019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -3007,7 +3034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -3022,7 +3049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -3037,7 +3064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -3052,7 +3079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -3067,7 +3094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -3082,7 +3109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -3097,7 +3124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3112,7 +3139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3127,7 +3154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3142,7 +3169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3157,7 +3184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3172,7 +3199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -3187,7 +3214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -3202,7 +3229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -3217,7 +3244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -3232,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3247,7 +3274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -3262,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -3277,7 +3304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -3292,7 +3319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3307,7 +3334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -3322,7 +3349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3337,7 +3364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3352,7 +3379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3367,7 +3394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3382,7 +3409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -3397,7 +3424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -3412,7 +3439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -3427,7 +3454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3442,7 +3469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -3457,7 +3484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -3472,7 +3499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -3487,7 +3514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -3502,7 +3529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -3517,7 +3544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>195</v>
       </c>
@@ -3532,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -3547,7 +3574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -3562,7 +3589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -3577,7 +3604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -3592,7 +3619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -3607,7 +3634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>208</v>
       </c>
@@ -3622,7 +3649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -3637,7 +3664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3652,7 +3679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -3668,7 +3695,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3676,17 +3703,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3739,30 +3766,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4292,7 +4319,7 @@
         <v>2161.6</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>259</v>
       </c>
@@ -4325,7 +4352,7 @@
         <v>572.91666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>262</v>
       </c>
@@ -4333,7 +4360,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>263</v>
       </c>
@@ -4341,7 +4368,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>264</v>
       </c>
@@ -4353,172 +4380,310 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>269</v>
-      </c>
       <c r="B2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2">
+        <v>272</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3088</v>
+      </c>
+      <c r="D2" s="1">
         <v>1440</v>
       </c>
-      <c r="D2">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2">
+        <v>1440</v>
+      </c>
+      <c r="J2">
         <v>3088</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>267</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>170</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3">
+        <v>1270</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2918</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4">
+        <v>3088</v>
+      </c>
+      <c r="J4">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="11">
+        <f>MIN(C3, D3)/MIN(C2,D2)</f>
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="D5" s="11">
+        <f>MIN(C3, D3)/MIN(C2,D2)</f>
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5">
+        <v>2918</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C4">
-        <v>1270</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>C2-C4</f>
-        <v>170</v>
-      </c>
-      <c r="H4" s="8">
-        <f>G4/C2</f>
-        <v>0.11805555555555555</v>
-      </c>
-      <c r="I4">
-        <f>H4*100</f>
-        <v>11.805555555555555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5">
-        <f>C3/MIN(C2,D2)</f>
-        <v>0.11805555555555555</v>
-      </c>
-      <c r="D5">
-        <f>D3/MIN(C2,D2)</f>
-        <v>0.11805555555555555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <f>C4/C2</f>
-        <v>0.88194444444444442</v>
-      </c>
-      <c r="D6">
+        <v>0.94494818652849744</v>
+      </c>
+      <c r="D6" s="11">
         <f>D4/D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="1">
+        <f>MIN(C7,D7)/MIN(C2,D2)</f>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="D8" s="1">
+        <f>MIN(C7,D7)/MIN(C2,D2)</f>
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="11">
+        <f>C5*MIN(C7,D7)</f>
+        <v>118.05555555555556</v>
+      </c>
+      <c r="D9" s="11">
+        <f>D5*MIN(C7,D7)</f>
+        <v>118.05555555555556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="11">
+        <f>((C7/C2)*C4) / C7</f>
+        <v>0.94494818652849732</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C11" s="11">
+        <f>C7*C6</f>
+        <v>1889.8963730569949</v>
+      </c>
+      <c r="D11" s="11">
+        <f>D7*D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C7">
-        <v>3088</v>
-      </c>
-      <c r="D7">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C8">
-        <f>C5*MIN(C7,D7)</f>
-        <v>170</v>
-      </c>
-      <c r="D8">
-        <f>D5*MIN(C7,D7)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C12" s="11">
+        <f>MIN(C9,D9)/MIN(C7,D7)</f>
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="D12" s="11">
+        <f>MIN(C9,D9)/MIN(C7,D7)</f>
+        <v>0.11805555555555555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C9">
-        <f>C5*C7</f>
-        <v>364.55555555555554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>2918</v>
+      <c r="C13" s="11">
+        <f>C11/C7</f>
+        <v>0.94494818652849744</v>
+      </c>
+      <c r="D13" s="11">
+        <f>D11/D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" t="str">
+        <f>IF((C9+C11) &gt; C7, "Error", "")</f>
+        <v>Error</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>C3*C8</f>
+        <v>118.05555555555556</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F0FFD-0CB8-4E14-AF53-09612E345460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="278">
   <si>
     <t>orientation</t>
   </si>
@@ -875,21 +869,18 @@
   </si>
   <si>
     <t>scale</t>
-  </si>
-  <si>
-    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,6 +926,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -969,7 +969,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -989,6 +989,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -1298,31 +1299,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1848,29 +1849,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2780,22 +2781,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3169,7 +3170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -3244,7 +3245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -3484,7 +3485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -3499,7 +3500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>195</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>208</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -3695,7 +3696,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
+  <sortState ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3703,17 +3704,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3766,30 +3767,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4380,27 +4381,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>274</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -4434,10 +4435,10 @@
         <v>272</v>
       </c>
       <c r="C2" s="1">
+        <v>1440</v>
+      </c>
+      <c r="D2" s="1">
         <v>3088</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1440</v>
       </c>
       <c r="G2" t="s">
         <v>275</v>
@@ -4452,7 +4453,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>268</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>270</v>
       </c>
       <c r="C4" s="1">
-        <v>2918</v>
+        <v>1270</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -4504,7 +4505,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>268</v>
       </c>
@@ -4512,12 +4513,12 @@
         <v>273</v>
       </c>
       <c r="C5" s="11">
-        <f>MIN(C3, D3)/MIN(C2,D2)</f>
+        <f>C3/C2</f>
         <v>0.11805555555555555</v>
       </c>
       <c r="D5" s="11">
-        <f>MIN(C3, D3)/MIN(C2,D2)</f>
-        <v>0.11805555555555555</v>
+        <f>D3/D2</f>
+        <v>5.5051813471502592E-2</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -4532,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>268</v>
       </c>
@@ -4541,14 +4542,14 @@
       </c>
       <c r="C6" s="11">
         <f>C4/C2</f>
-        <v>0.94494818652849744</v>
+        <v>0.88194444444444442</v>
       </c>
       <c r="D6" s="11">
         <f>D4/D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>269</v>
       </c>
@@ -4556,29 +4557,29 @@
         <v>272</v>
       </c>
       <c r="C7" s="1">
-        <v>2000</v>
+        <v>320</v>
       </c>
       <c r="D7" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="1">
-        <f>MIN(C7,D7)/MIN(C2,D2)</f>
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="D8" s="1">
-        <f>MIN(C7,D7)/MIN(C2,D2)</f>
-        <v>0.69444444444444442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="13">
+        <f>C7/C2</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D8" s="13">
+        <f>C7/C2</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>269</v>
       </c>
@@ -4586,15 +4587,15 @@
         <v>267</v>
       </c>
       <c r="C9" s="11">
-        <f>C5*MIN(C7,D7)</f>
-        <v>118.05555555555556</v>
+        <f>C3*C8</f>
+        <v>37.777777777777779</v>
       </c>
       <c r="D9" s="11">
-        <f>D5*MIN(C7,D7)</f>
-        <v>118.05555555555556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <f>D3*D8</f>
+        <v>37.777777777777779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>269</v>
       </c>
@@ -4602,12 +4603,15 @@
         <v>271</v>
       </c>
       <c r="C10" s="11">
-        <f>((C7/C2)*C4) / C7</f>
-        <v>0.94494818652849732</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <f>C11/C7</f>
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="D10" s="11">
+        <f>D11/D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>269</v>
       </c>
@@ -4615,15 +4619,15 @@
         <v>270</v>
       </c>
       <c r="C11" s="11">
-        <f>C7*C6</f>
-        <v>1889.8963730569949</v>
+        <f>C4*C8</f>
+        <v>282.22222222222223</v>
       </c>
       <c r="D11" s="11">
-        <f>D7*D6</f>
+        <f>D4*D8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>269</v>
       </c>
@@ -4631,62 +4635,30 @@
         <v>273</v>
       </c>
       <c r="C12" s="11">
-        <f>MIN(C9,D9)/MIN(C7,D7)</f>
+        <f>C9/C7</f>
         <v>0.11805555555555555</v>
       </c>
       <c r="D12" s="11">
-        <f>MIN(C9,D9)/MIN(C7,D7)</f>
-        <v>0.11805555555555555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <f>D9/D7</f>
+        <v>7.8703703703703706E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>269</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="11">
-        <f>C11/C7</f>
-        <v>0.94494818652849744</v>
-      </c>
-      <c r="D13" s="11">
-        <f>D11/D7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B14" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C13" t="str">
         <f>IF((C9+C11) &gt; C7, "Error", "")</f>
-        <v>Error</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <f>C3*C8</f>
-        <v>118.05555555555556</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>278</v>
-      </c>
-    </row>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -4385,7 +4385,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DA1C18-2A5D-4AEB-8C47-433DDA8F73E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="277">
   <si>
     <t>orientation</t>
   </si>
@@ -866,15 +872,12 @@
   </si>
   <si>
     <t>close-error</t>
-  </si>
-  <si>
-    <t>scale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -1299,31 +1302,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1849,29 +1852,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2781,22 +2784,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2945,7 +2948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -3080,7 +3083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -3095,7 +3098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3200,7 +3203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -3305,7 +3308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -3515,7 +3518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>195</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -3590,7 +3593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>208</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -3696,7 +3699,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3704,17 +3707,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3767,30 +3770,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4381,27 +4384,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>274</v>
       </c>
@@ -4427,7 +4430,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -4435,10 +4438,10 @@
         <v>272</v>
       </c>
       <c r="C2" s="1">
+        <v>3088</v>
+      </c>
+      <c r="D2" s="1">
         <v>1440</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3088</v>
       </c>
       <c r="G2" t="s">
         <v>275</v>
@@ -4453,7 +4456,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>268</v>
       </c>
@@ -4487,7 +4490,7 @@
         <v>270</v>
       </c>
       <c r="C4" s="1">
-        <v>1270</v>
+        <v>2918</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -4505,7 +4508,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>268</v>
       </c>
@@ -4514,11 +4517,11 @@
       </c>
       <c r="C5" s="11">
         <f>C3/C2</f>
-        <v>0.11805555555555555</v>
+        <v>5.5051813471502592E-2</v>
       </c>
       <c r="D5" s="11">
         <f>D3/D2</f>
-        <v>5.5051813471502592E-2</v>
+        <v>0.11805555555555555</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -4533,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>268</v>
       </c>
@@ -4542,14 +4545,14 @@
       </c>
       <c r="C6" s="11">
         <f>C4/C2</f>
-        <v>0.88194444444444442</v>
+        <v>0.94494818652849744</v>
       </c>
       <c r="D6" s="11">
         <f>D4/D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>269</v>
       </c>
@@ -4557,29 +4560,29 @@
         <v>272</v>
       </c>
       <c r="C7" s="1">
-        <v>320</v>
+        <v>1745</v>
       </c>
       <c r="D7" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>269</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="C8" s="13">
         <f>C7/C2</f>
-        <v>0.22222222222222221</v>
+        <v>0.56509067357512954</v>
       </c>
       <c r="D8" s="13">
         <f>C7/C2</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>0.56509067357512954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>269</v>
       </c>
@@ -4588,14 +4591,14 @@
       </c>
       <c r="C9" s="11">
         <f>C3*C8</f>
-        <v>37.777777777777779</v>
+        <v>96.065414507772019</v>
       </c>
       <c r="D9" s="11">
         <f>D3*D8</f>
-        <v>37.777777777777779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>96.065414507772019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>269</v>
       </c>
@@ -4604,14 +4607,14 @@
       </c>
       <c r="C10" s="11">
         <f>C11/C7</f>
-        <v>0.88194444444444442</v>
+        <v>0.94494818652849744</v>
       </c>
       <c r="D10" s="11">
         <f>D11/D7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>269</v>
       </c>
@@ -4620,14 +4623,14 @@
       </c>
       <c r="C11" s="11">
         <f>C4*C8</f>
-        <v>282.22222222222223</v>
+        <v>1648.9345854922281</v>
       </c>
       <c r="D11" s="11">
         <f>D4*D8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>269</v>
       </c>
@@ -4636,14 +4639,14 @@
       </c>
       <c r="C12" s="11">
         <f>C9/C7</f>
-        <v>0.11805555555555555</v>
+        <v>5.5051813471502592E-2</v>
       </c>
       <c r="D12" s="11">
         <f>D9/D7</f>
-        <v>7.8703703703703706E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>0.10978904515173946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>269</v>
       </c>
@@ -4655,8 +4658,6 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DA1C18-2A5D-4AEB-8C47-433DDA8F73E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC355D-C562-488E-BCD0-010FC04F7D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4388,7 +4388,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,10 +4438,10 @@
         <v>272</v>
       </c>
       <c r="C2" s="1">
+        <v>1440</v>
+      </c>
+      <c r="D2" s="1">
         <v>3088</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1440</v>
       </c>
       <c r="G2" t="s">
         <v>275</v>
@@ -4517,11 +4517,11 @@
       </c>
       <c r="C5" s="11">
         <f>C3/C2</f>
-        <v>5.5051813471502592E-2</v>
+        <v>0.11805555555555555</v>
       </c>
       <c r="D5" s="11">
         <f>D3/D2</f>
-        <v>0.11805555555555555</v>
+        <v>5.5051813471502592E-2</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="C6" s="11">
         <f>C4/C2</f>
-        <v>0.94494818652849744</v>
+        <v>2.026388888888889</v>
       </c>
       <c r="D6" s="11">
         <f>D4/D2</f>
@@ -4560,10 +4560,10 @@
         <v>272</v>
       </c>
       <c r="C7" s="1">
-        <v>1745</v>
+        <v>754</v>
       </c>
       <c r="D7" s="1">
-        <v>875</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4575,11 +4575,11 @@
       </c>
       <c r="C8" s="13">
         <f>C7/C2</f>
-        <v>0.56509067357512954</v>
+        <v>0.52361111111111114</v>
       </c>
       <c r="D8" s="13">
         <f>C7/C2</f>
-        <v>0.56509067357512954</v>
+        <v>0.52361111111111114</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4591,11 +4591,11 @@
       </c>
       <c r="C9" s="11">
         <f>C3*C8</f>
-        <v>96.065414507772019</v>
+        <v>89.0138888888889</v>
       </c>
       <c r="D9" s="11">
         <f>D3*D8</f>
-        <v>96.065414507772019</v>
+        <v>89.0138888888889</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="C10" s="11">
         <f>C11/C7</f>
-        <v>0.94494818652849744</v>
+        <v>2.026388888888889</v>
       </c>
       <c r="D10" s="11">
         <f>D11/D7</f>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="C11" s="11">
         <f>C4*C8</f>
-        <v>1648.9345854922281</v>
+        <v>1527.8972222222224</v>
       </c>
       <c r="D11" s="11">
         <f>D4*D8</f>
@@ -4639,11 +4639,11 @@
       </c>
       <c r="C12" s="11">
         <f>C9/C7</f>
-        <v>5.5051813471502592E-2</v>
+        <v>0.11805555555555557</v>
       </c>
       <c r="D12" s="11">
         <f>D9/D7</f>
-        <v>0.10978904515173946</v>
+        <v>0.11789919058130981</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="C13" t="str">
         <f>IF((C9+C11) &gt; C7, "Error", "")</f>
-        <v/>
+        <v>Error</v>
       </c>
     </row>
   </sheetData>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC355D-C562-488E-BCD0-010FC04F7D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12E82B9-CB99-482A-8CBB-413AE66F9FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="278">
   <si>
     <t>orientation</t>
   </si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>close-error</t>
+  </si>
+  <si>
+    <t>Portait</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1316,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,928 +1856,950 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>230</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>214</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>216</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>215</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2">
         <v>1440</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3088</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D18" si="0">B2/C2</f>
+      <c r="E2">
+        <f t="shared" ref="E2:E18" si="0">C2/D2</f>
         <v>0.46632124352331605</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E18" si="1">MIN(C2, B2)</f>
+      <c r="F2">
+        <f t="shared" ref="F2:F18" si="1">MIN(D2, C2)</f>
         <v>1440</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>100</v>
       </c>
-      <c r="G2">
-        <f>D2*F2</f>
+      <c r="H2">
+        <f>E2*G2</f>
         <v>46.632124352331608</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.1</v>
       </c>
-      <c r="I2">
-        <f>(E2*H2) / 100</f>
+      <c r="J2">
+        <f>(F2*I2) / 100</f>
         <v>1.44</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <f>F2*I2*J2</f>
+      <c r="L2">
+        <f>G2*J2*K2</f>
         <v>144</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.1</v>
       </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M18" si="2">B2*L2</f>
+      <c r="N2">
+        <f t="shared" ref="N2:N18" si="2">C2*M2</f>
         <v>144</v>
       </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N18" si="3">C2*L2</f>
+      <c r="O2">
+        <f t="shared" ref="O2:O18" si="3">D2*M2</f>
         <v>308.8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3">
         <v>3088</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1440</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f t="shared" si="0"/>
         <v>2.1444444444444444</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="G3">
-        <f>D3*F3</f>
+      <c r="H3">
+        <f>E3*G3</f>
         <v>214.44444444444443</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1</v>
       </c>
-      <c r="I3">
-        <f>(E3*H3) / 100</f>
+      <c r="J3">
+        <f>(F3*I3) / 100</f>
         <v>1.44</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="K3">
-        <f>F3*I3*J3</f>
+      <c r="L3">
+        <f>G3*J3*K3</f>
         <v>144</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <f t="shared" si="2"/>
         <v>617.6</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4">
         <v>1000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G6" si="4">D4*F4</f>
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="4">E4*G4</f>
         <v>50</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.1</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I12" si="5">(E4*H4) / 100</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J12" si="5">(F4*I4) / 100</f>
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K12" si="6">F4*I4*J4</f>
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="6">G4*J4*K4</f>
         <v>100</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.1</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5">
         <v>1080</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2408</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>0.44850498338870431</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="4"/>
         <v>44.85049833887043</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="5"/>
         <v>1.08</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.1</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f t="shared" si="3"/>
         <v>240.8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6">
         <v>3840</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2160</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>2160</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="4"/>
         <v>177.77777777777777</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="5"/>
         <v>2.16</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.1</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7">
         <v>1280</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>800</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G18" si="7">D7*F7</f>
+      <c r="H7">
+        <f t="shared" ref="H7:H18" si="7">E7*G7</f>
         <v>160</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.1</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.1</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8">
-        <v>1000</v>
-      </c>
       <c r="C8">
         <v>1000</v>
       </c>
       <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>100</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.1</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.1</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1290</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2796</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>0.46137339055793991</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>1290</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>100</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="7"/>
         <v>46.137339055793994</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.1</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="5"/>
         <v>1.29</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="6"/>
         <v>129</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.1</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="3"/>
         <v>279.60000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>700</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>3088</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>0.2266839378238342</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="7"/>
         <v>22.668393782383419</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.1</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.1</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="3"/>
         <v>308.8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3088</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>700</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>4.411428571428571</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>100</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="7"/>
         <v>441.14285714285711</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.1</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.1</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="2"/>
         <v>308.8</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>218</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>320</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>480</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>100</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="7"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.1</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="5"/>
         <v>0.32</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.1</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>224</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>1080</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2340</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>0.46153846153846156</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>100</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="7"/>
         <v>46.153846153846153</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.1</v>
       </c>
-      <c r="I13">
-        <f>(E13*H13) / 100</f>
+      <c r="J13">
+        <f>(F13*I13) / 100</f>
         <v>1.08</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1</v>
       </c>
-      <c r="K13">
-        <f>F13*I13*J13</f>
+      <c r="L13">
+        <f>G13*J13*K13</f>
         <v>108</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.1</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>360</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>800</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>100</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.1</v>
       </c>
-      <c r="I14">
-        <f t="shared" ref="I14:I18" si="8">(E14*H14) / 100</f>
+      <c r="J14">
+        <f t="shared" ref="J14:J18" si="8">(F14*I14) / 100</f>
         <v>0.36</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="K14">
-        <f t="shared" ref="K14:K18" si="9">F14*I14*J14</f>
+      <c r="L14">
+        <f t="shared" ref="L14:L18" si="9">G14*J14*K14</f>
         <v>36</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.1</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>1920</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1080</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>100</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="7"/>
         <v>177.77777777777777</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.1</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="9"/>
         <v>108</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.1</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>2960</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1848</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>1.6017316017316017</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>1848</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>100</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="7"/>
         <v>160.17316017316017</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="8"/>
         <v>1.8480000000000001</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" si="9"/>
         <v>184.8</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.1</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f t="shared" si="2"/>
         <v>296</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" si="3"/>
         <v>184.8</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>1170</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2532</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>0.46208530805687204</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>1170</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>100</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="7"/>
         <v>46.208530805687204</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.1</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="8"/>
         <v>1.17</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f t="shared" si="9"/>
         <v>117</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.1</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <f t="shared" si="3"/>
         <v>253.20000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>1848</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2960</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>0.62432432432432428</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>1848</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>100</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="7"/>
         <v>62.432432432432428</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.1</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="8"/>
         <v>1.8480000000000001</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f t="shared" si="9"/>
         <v>184.8</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.1</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f t="shared" si="2"/>
         <v>184.8</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <f t="shared" si="3"/>
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J31" t="s">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4387,7 +4412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/src/App_DevResources/Device-resolutions.xlsx
+++ b/src/App_DevResources/Device-resolutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Documents\_Data\GitHub\azure-samples\blazor-samples\src\App_DevResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12E82B9-CB99-482A-8CBB-413AE66F9FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48880B59-3B03-40C6-A5FA-82AE69F3775B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-Resolutions" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="279">
   <si>
     <t>orientation</t>
   </si>
@@ -875,6 +875,9 @@
   </si>
   <si>
     <t>Portait</t>
+  </si>
+  <si>
+    <t>size-ratio</t>
   </si>
 </sst>
 </file>
@@ -1858,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,6 +2256,9 @@
       <c r="A8" t="s">
         <v>33</v>
       </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
       <c r="C8">
         <v>1000</v>
       </c>
@@ -2304,6 +2310,9 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
+      <c r="B9" t="s">
+        <v>277</v>
+      </c>
       <c r="C9">
         <v>1290</v>
       </c>
@@ -2355,6 +2364,9 @@
       <c r="A10" t="s">
         <v>38</v>
       </c>
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
       <c r="C10">
         <v>700</v>
       </c>
@@ -2405,6 +2417,9 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>243</v>
       </c>
       <c r="C11">
         <v>3088</v>
@@ -4410,10 +4425,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,10 +4478,10 @@
         <v>272</v>
       </c>
       <c r="C2" s="1">
-        <v>1440</v>
+        <v>2796</v>
       </c>
       <c r="D2" s="1">
-        <v>3088</v>
+        <v>1290</v>
       </c>
       <c r="G2" t="s">
         <v>275</v>
@@ -4489,10 +4504,16 @@
         <v>267</v>
       </c>
       <c r="C3" s="1">
-        <v>170</v>
+        <f>E3</f>
+        <v>129</v>
       </c>
       <c r="D3" s="1">
-        <v>170</v>
+        <f>E3</f>
+        <v>129</v>
+      </c>
+      <c r="E3">
+        <f>MIN(C2,D2)*0.1</f>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
         <v>275</v>
@@ -4515,7 +4536,7 @@
         <v>270</v>
       </c>
       <c r="C4" s="1">
-        <v>2918</v>
+        <v>2667</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -4542,11 +4563,11 @@
       </c>
       <c r="C5" s="11">
         <f>C3/C2</f>
-        <v>0.11805555555555555</v>
+        <v>4.6137339055793994E-2</v>
       </c>
       <c r="D5" s="11">
         <f>D3/D2</f>
-        <v>5.5051813471502592E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -4570,7 +4591,7 @@
       </c>
       <c r="C6" s="11">
         <f>C4/C2</f>
-        <v>2.026388888888889</v>
+        <v>0.95386266094420602</v>
       </c>
       <c r="D6" s="11">
         <f>D4/D2</f>
@@ -4600,27 +4621,25 @@
       </c>
       <c r="C8" s="13">
         <f>C7/C2</f>
-        <v>0.52361111111111114</v>
+        <v>0.26967095851216022</v>
       </c>
       <c r="D8" s="13">
         <f>C7/C2</f>
-        <v>0.52361111111111114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="11">
-        <f>C3*C8</f>
-        <v>89.0138888888889</v>
-      </c>
-      <c r="D9" s="11">
-        <f>D3*D8</f>
-        <v>89.0138888888889</v>
+        <v>0.26967095851216022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="13">
+        <f>C7/MIN(C2, D2)</f>
+        <v>0.5844961240310077</v>
+      </c>
+      <c r="D9" s="13">
+        <f>C7/MIN(C2,D2)</f>
+        <v>0.5844961240310077</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4628,15 +4647,15 @@
         <v>269</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C10" s="11">
-        <f>C11/C7</f>
-        <v>2.026388888888889</v>
+        <f>C3*C8</f>
+        <v>34.787553648068666</v>
       </c>
       <c r="D10" s="11">
-        <f>D11/D7</f>
-        <v>0</v>
+        <f>D3*D8</f>
+        <v>34.787553648068666</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4644,15 +4663,15 @@
         <v>269</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C11" s="11">
-        <f>C4*C8</f>
-        <v>1527.8972222222224</v>
+        <f>C3*C9</f>
+        <v>75.399999999999991</v>
       </c>
       <c r="D11" s="11">
-        <f>D4*D8</f>
-        <v>0</v>
+        <f>D3*D9</f>
+        <v>75.399999999999991</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4660,15 +4679,15 @@
         <v>269</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C12" s="11">
-        <f>C9/C7</f>
-        <v>0.11805555555555557</v>
+        <f>C13/C7</f>
+        <v>0.95386266094420591</v>
       </c>
       <c r="D12" s="11">
-        <f>D9/D7</f>
-        <v>0.11789919058130981</v>
+        <f>D13/D7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4676,10 +4695,78 @@
         <v>269</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="11">
+        <f>C4*C8</f>
+        <v>719.21244635193125</v>
+      </c>
+      <c r="D13" s="11">
+        <f>D4*D8</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>C8*C9</f>
+        <v>0.15762163001408433</v>
+      </c>
+      <c r="G13">
+        <f>C7*F13</f>
+        <v>118.84670903061958</v>
+      </c>
+      <c r="H13">
+        <f>C7-G13</f>
+        <v>635.15329096938046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="11">
+        <f>C10/C7</f>
+        <v>4.6137339055793987E-2</v>
+      </c>
+      <c r="D14" s="11">
+        <f>D10/D7</f>
+        <v>4.6076229997441945E-2</v>
+      </c>
+      <c r="F14">
+        <f>C13+C10</f>
+        <v>753.99999999999989</v>
+      </c>
+      <c r="G14">
+        <f>C7-C11</f>
+        <v>678.6</v>
+      </c>
+      <c r="H14">
+        <f>C4*F13</f>
+        <v>420.37688724756293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C13" t="str">
-        <f>IF((C9+C11) &gt; C7, "Error", "")</f>
+      <c r="C15" t="str">
+        <f>IF((C10+C13) &gt; C7, "Error", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" t="str">
+        <f>IF((C11+C13) &gt; C7, "Error", "")</f>
         <v>Error</v>
       </c>
     </row>
